--- a/artifacts/recipes/new_data/allrecipescom/mexican/mexican_salads.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/mexican/mexican_salads.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699641150-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Mexican Salads</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699641160-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SoUsQOHKvrzlyT3rAC5nTucMxUA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/880004-f0c0b5884fd142beb101c4860878427d.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24877/southwestern-chicken-salad/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Southwestern Chicken Salad</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n45 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  lemon, thinly sliced\n\n\n1  bay leaf\n\n\n1 teaspoon whole black peppercorns\n\n\n¾ teaspoon dried thyme, divided\n\n\n2  skinless, boneless chicken breast halves\n\n\n¾ teaspoon paprika\n\n\n⅓ cup light mayonnaise\n\n\n¼ cup sour cream\n\n\n½ teaspoon salt\n\n\n¼ teaspoon coarsely ground black pepper\n\n\n⅛ teaspoon ground nutmeg\n\n\n1 ½ cups fresh corn, cooked and cut from the cob\n\n\n2 tablespoons chopped fresh cilantro\n\n\n¾ cup diced orange bell pepper\n\n\n1  jalapeno pepper, seeded and minced"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  lemon, thinly sliced\n\n\n1  bay leaf\n\n\n1 teaspoon whole black peppercorns\n\n\n¾ teaspoon dried thyme, divided\n\n\n2  skinless, boneless chicken breast halves\n\n\n¾ teaspoon paprika\n\n\n⅓ cup light mayonnaise\n\n\n¼ cup sour cream\n\n\n½ teaspoon salt\n\n\n¼ teaspoon coarsely ground black pepper\n\n\n⅛ teaspoon ground nutmeg\n\n\n1 ½ cups fresh corn, cooked and cut from the cob\n\n\n2 tablespoons chopped fresh cilantro\n\n\n¾ cup diced orange bell pepper\n\n\n1  jalapeno pepper, seeded and minced'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill a large skillet with 1 inch (2.5 cm) of water. Add lemon slices, bay leaf, peppercorns and 2/3 of the thyme, and bring to boiling over high heat. Add chicken, reduce heat to low and simmer for 15-18 minutes, turning chicken once, until juices run clear and chicken is no longer pink. Remove chicken from liquid and set aside to cool."},{"recipe_directions":"In a small skillet, stir together the paprika and remaining thyme over medium-low heat for 2 minutes. In a small bowl, whisk together the toasted paprika mixture, mayonnaise, sour cream, salt, ground pepper and nutmeg until evenly blended."},{"recipe_directions":"Cube cooled chicken and transfer to a medium bowl. Add prepared dressing, corn, cilantro, orange pepper and jalapeno and toss until evenly coated. Serve warm, or refrigerate until ready to serve."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"230\nCalories\n\n\n11g \nFat\n\n\n19g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699641167-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WutZ1pG7z3KWuFM9JEvfgZntaR4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4464201-916dad2d28d240a689261fd652a86d7d.jpg"
@@ -268,59 +605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/256742/tex-mex-beef-bowl-with-avocado-cilantro-dressing/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Tex-Mex Beef Bowl with Avocado Cilantro Dressing</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n8 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n48 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ teaspoon garlic powder\n\n\n½ teaspoon chili powder\n\n\n½ teaspoon kosher salt\n\n\n¼ teaspoon sweet paprika\n\n\n¼ teaspoon ground cumin"},{"recipe_ingredients":"½ pound flank steak\n\n\n1 cup cooked white rice\n\n\n1 cup halved cherry tomatoes\n\n\n1 cup chopped romaine lettuce\n\n\n1 cup tortilla chips\n\n\n½ cup canned black beans\n\n\n1  jalapeno pepper, thinly sliced\n\n\n1  lime, cut into wedges\n\n\n¼ cup crumbled cotija cheese\n\n\n1 tablespoon chopped fresh cilantro"},{"recipe_ingredients":"2  avocados, peeled and pitted\n\n\n1 cup water\n\n\n½ cup chopped fresh cilantro\n\n\n2 tablespoons sour cream\n\n\n1  lime, juiced\n\n\n1 clove garlic\n\n\n1 pinch salt"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ teaspoon garlic powder\n\n\n½ teaspoon chili powder\n\n\n½ teaspoon kosher salt\n\n\n¼ teaspoon sweet paprika\n\n\n¼ teaspoon ground cumin'}, {'recipe_ingredients': '½ pound flank steak\n\n\n1 cup cooked white rice\n\n\n1 cup halved cherry tomatoes\n\n\n1 cup chopped romaine lettuce\n\n\n1 cup tortilla chips\n\n\n½ cup canned black beans\n\n\n1  jalapeno pepper, thinly sliced\n\n\n1  lime, cut into wedges\n\n\n¼ cup crumbled cotija cheese\n\n\n1 tablespoon chopped fresh cilantro'}, {'recipe_ingredients': '2  avocados, peeled and pitted\n\n\n1 cup water\n\n\n½ cup chopped fresh cilantro\n\n\n2 tablespoons sour cream\n\n\n1  lime, juiced\n\n\n1 clove garlic\n\n\n1 pinch salt'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a grill pan or skillet over medium-high heat until just barely smoking."},{"recipe_directions":"Combine garlic powder, chili powder, kosher salt, paprika, and cumin in a bowl; rub over all sides of flank steak."},{"recipe_directions":"Grill flank steak in the preheated grill pan, flipping halfway through, until browned and cooked to desired doneness, about 8 minutes. Let steak rest on a work surface for 10 minutes. Thinly slice steak against the grain."},{"recipe_directions":"Divide rice, tomatoes, romaine lettuce, tortilla chips, black beans, jalapeno peppers, and lime wedges between 2 serving bowls; top with steak, cotija cheese, and 1 tablespoon cilantro."},{"recipe_directions":"Combine avocados, water, 1/2 cup cilantro, sour cream, lime juice, garlic, and salt in a blender; blend until dressing is smooth. Pour dressing over each bowl."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Beef and Pork Salad Recipes"},{"recipe_tags":"Beef Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"789\nCalories\n\n\n46g \nFat\n\n\n73g \nCarbs\n\n\n31g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699641177-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kKBZht12U_rePiqH9FcQH7Pv50Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(539x0:541x2):format(webp)/4560506-f9f2868304344160987214d38f10d1b8.jpg"
@@ -333,59 +666,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24362/italian-taco-salad/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Italian Taco Salad</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound ground beef\n\n\n3 cups crushed tortilla chips\n\n\n2 cups shredded mozzarella cheese\n\n\n2 cups shredded Cheddar cheese\n\n\n1 (10 ounce) package mixed salad greens\n\n\n1 (8 ounce) bottle zesty Italian dressing"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound ground beef\n\n\n3 cups crushed tortilla chips\n\n\n2 cups shredded mozzarella cheese\n\n\n2 cups shredded Cheddar cheese\n\n\n1 (10 ounce) package mixed salad greens\n\n\n1 (8 ounce) bottle zesty Italian dressing'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium skillet over medium heat, cook the ground beef until evenly browned. Remove from heat, and drain."},{"recipe_directions":"In a large bowl, combine the ground beef, tortilla chips, mozzarella cheese, Cheddar cheese, and salad greens. Toss with Italian dressing until evenly coated, and serve."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Taco Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"610\nCalories\n\n\n47g \nFat\n\n\n14g \nCarbs\n\n\n33g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699641184-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/M9M8PRR5KYIbmpvx51Z4fazFTok=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2391648-560804913fc84dafad8c8bb56bd85223.jpg"
@@ -398,59 +727,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230879/black-bean-salad-with-peaches/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Black Bean Salad with Peaches</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  fresh peaches, finely chopped\n\n\n1  red bell pepper, finely chopped\n\n\n¼  red onion, finely diced\n\n\n1  jalapeno pepper, seeded and diced\n\n\n1 (15.5 ounce) can black beans, rinsed and drained\n\n\n½ cup finely chopped fresh cilantro\n\n\n½ teaspoon ground cumin\n\n\n  sea salt to taste\n\n\n1  avocado - peeled, pitted, and chopped\n\n\n2 tablespoons lime juice\n\n\n2 teaspoons extra-virgin olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  fresh peaches, finely chopped\n\n\n1  red bell pepper, finely chopped\n\n\n¼  red onion, finely diced\n\n\n1  jalapeno pepper, seeded and diced\n\n\n1 (15.5 ounce) can black beans, rinsed and drained\n\n\n½ cup finely chopped fresh cilantro\n\n\n½ teaspoon ground cumin\n\n\n  sea salt to taste\n\n\n1  avocado - peeled, pitted, and chopped\n\n\n2 tablespoons lime juice\n\n\n2 teaspoons extra-virgin olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix peaches, red bell pepper, onion, and jalapeno pepper together in a bowl; gently fold in black beans and cilantro. Season with cumin and sea salt. Fold in avocado and drizzle salad with lime juice and olive oil. Let stand for 5 to 10 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Beans"},{"recipe_tags":"Black Bean Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"231\nCalories\n\n\n10g \nFat\n\n\n29g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699641193-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4UaX4m5gu3VsySc9rNotbiWAwYQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/6739440-602b1ccf8a9946b8bd12787f9ff0f859.jpg"
@@ -463,59 +788,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/234755/mexican-chicken-and-rice-salad/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Mexican Chicken and Rice Salad</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups cooked brown rice\n\n\n2 cups salsa\n\n\n1 (15.25 ounce) can sweet corn, drained\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n1  cooked chicken breast, chopped\n\n\n1  avocado - peeled, pitted, and cut into cubes\n\n\n¼ cup chopped cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups cooked brown rice\n\n\n2 cups salsa\n\n\n1 (15.25 ounce) can sweet corn, drained\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n1  cooked chicken breast, chopped\n\n\n1  avocado - peeled, pitted, and cut into cubes\n\n\n¼ cup chopped cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix rice, salsa, corn, beans, chicken, avocado, and cilantro together in a bowl."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Grains"},{"recipe_tags":"Rice Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"567\nCalories\n\n\n9g \nFat\n\n\n106g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699641202-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QW7eEJzYiA7ue-tu5QIc9uphDTg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3737852-2584b1dd37184a95a566bc7ceb436874.jpg"
@@ -528,59 +849,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231103/cold-southwestern-bow-tie-pasta/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Cold Southwestern Bow Tie Pasta</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (12 ounce) package bow tie pasta\n\n\n¼ cup extra-virgin olive oil\n\n\n¼ cup fresh lime juice\n\n\n2 tablespoons chopped fresh cilantro\n\n\n2 teaspoons garlic powder\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon ground red chile pepper\n\n\n¼ teaspoon cayenne pepper\n\n\n  salt and ground black pepper to taste\n\n\n1 (9 ounce) can whole kernel corn, drained\n\n\n½ (15 ounce) can black beans, drained\n\n\n½ (15 ounce) can diced tomatoes and green chiles, drained\n\n\n2  green onions, sliced\n\n\n2  avocados - peeled, pitted, and diced"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (12 ounce) package bow tie pasta\n\n\n¼ cup extra-virgin olive oil\n\n\n¼ cup fresh lime juice\n\n\n2 tablespoons chopped fresh cilantro\n\n\n2 teaspoons garlic powder\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon ground red chile pepper\n\n\n¼ teaspoon cayenne pepper\n\n\n  salt and ground black pepper to taste\n\n\n1 (9 ounce) can whole kernel corn, drained\n\n\n½ (15 ounce) can black beans, drained\n\n\n½ (15 ounce) can diced tomatoes and green chiles, drained\n\n\n2  green onions, sliced\n\n\n2  avocados - peeled, pitted, and diced'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Cook the bow tie pasta at a boil, stirring occasionally, until cooked through yet firm to the bite, about 12 minutes; drain."},{"recipe_directions":"Whisk olive oil, lime juice, cilantro, garlic powder, cumin, ground chile pepper, cayenne pepper, salt, and black pepper together in a large bowl. Stir corn, black beans, diced tomatoes and green chiles, and green onions into the dressing to coat. Gently mix avocados into bean mixture; fold bow tie pasta into the salad. Cover salad with plastic wrap and refrigerate 30 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Vegetarian Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"473\nCalories\n\n\n21g \nFat\n\n\n64g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699641208-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/F0AbU_YTvdHXGT8BQeGVKzJt9Mw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1940432-a85c4760428b44dc938d722d44ac43ba.jpg"
@@ -593,59 +910,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236243/mexican-green-papaya-salad/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Mexican Green Papaya Salad</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup chopped fresh cilantro, or to taste\n\n\n3 cloves garlic, minced, or more to taste\n\n\n2  limes, juiced\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon brown sugar\n\n\n1 pinch chili powder, or more to taste (Optional)\n\n\n  salt to taste"},{"recipe_ingredients":"1  green papaya, peeled and shredded\n\n\n2 cups cold cooked black beans\n\n\n1 cup cold cooked corn\n\n\n1  red bell pepper, cut into small dice"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup chopped fresh cilantro, or to taste\n\n\n3 cloves garlic, minced, or more to taste\n\n\n2  limes, juiced\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon brown sugar\n\n\n1 pinch chili powder, or more to taste (Optional)\n\n\n  salt to taste'}, {'recipe_ingredients': '1  green papaya, peeled and shredded\n\n\n2 cups cold cooked black beans\n\n\n1 cup cold cooked corn\n\n\n1  red bell pepper, cut into small dice'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Blend cilantro, garlic, lime juice, olive oil, brown sugar, chili powder, and salt in a blender until smooth."},{"recipe_directions":"Toss shredded papaya, black beans, corn, and red bell pepper together in a large mixing bowl; add dressing and toss to coat."},{"recipe_directions":"Cover bowl with plastic wrap and refrigerate at least 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Fruit Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"168\nCalories\n\n\n5g \nFat\n\n\n27g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699641214-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/VvhEDM44VgPEekhfmNcdn_rsREg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(851x0:853x2):format(webp)/4504729-b4c591ae766f4f13b9b7d4e09520310b.jpg"
@@ -658,59 +971,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14905/southwestern-cactus-salad/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Southwestern Cactus Salad</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr 5 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) jar nopales - drained, rinsed, and dried\n\n\n2 cups chopped tomatoes\n\n\n½ cup diced onion\n\n\n5  jalapeno peppers, seeded and minced\n\n\n½ cup fresh cilantro leaves\n\n\n2  lemons\n\n\n½ teaspoon garlic salt (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) jar nopales - drained, rinsed, and dried\n\n\n2 cups chopped tomatoes\n\n\n½ cup diced onion\n\n\n5  jalapeno peppers, seeded and minced\n\n\n½ cup fresh cilantro leaves\n\n\n2  lemons\n\n\n½ teaspoon garlic salt (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium size mixing bowl, combine cactus, tomatoes, onions, jalapenos and cilantro. Squeeze the juice from both lemons over the mixture. Cover and refrigerate for at least 1 hour. Sprinkle with garlic salt (if you'd like) and serve."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"30\nCalories\n\n\n0g \nFat\n\n\n8g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699641219-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vuizIe6bI9INN4fy96I4CqvBkh4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/839035-d9a21183430f49ffb28160a768724bc3.jpg"
@@ -723,59 +1032,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/218474/mexican-cucumber-and-carrot-salad/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Mexican Cucumber and Carrot Salad</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  cucumber, sliced\n\n\n1 (8 ounce) package baby carrots\n\n\n1  lime, juiced\n\n\n1 teaspoon chili powder\n\n\n¼ teaspoon salt\n\n\n1 pinch cayenne pepper, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  cucumber, sliced\n\n\n1 (8 ounce) package baby carrots\n\n\n1  lime, juiced\n\n\n1 teaspoon chili powder\n\n\n¼ teaspoon salt\n\n\n1 pinch cayenne pepper, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine the cucumber, baby carrots, lime juice, chili powder, salt, and cayenne pepper in a bowl; toss to combine evenly."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Cucumber Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"34\nCalories\n\n\n0g \nFat\n\n\n9g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699641224-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Vl7Zxr5ziB7HjZEdiwG6Di6jnQI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/9244073-69a8336f168e48cba9cf5daf0bdd4dc0.jpg"
@@ -788,59 +1093,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244524/cocktail-shrimp-salad/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Cocktail Shrimp Salad</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds cooked shrimp, tails removed\n\n\n1 large cucumber - peeled, seeded, and diced\n\n\n1  white onion, diced\n\n\n3  Roma tomatoes, diced\n\n\n⅓ bunch fresh cilantro, chopped\n\n\n4  limes, juiced\n\n\n1 (12 ounce) bottle ketchup\n\n\n8 fluid ounces tomato juice\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds cooked shrimp, tails removed\n\n\n1 large cucumber - peeled, seeded, and diced\n\n\n1  white onion, diced\n\n\n3  Roma tomatoes, diced\n\n\n⅓ bunch fresh cilantro, chopped\n\n\n4  limes, juiced\n\n\n1 (12 ounce) bottle ketchup\n\n\n8 fluid ounces tomato juice\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut cooked shrimp into thirds and place in a large bowl; add cucumber, onion, and tomatoes. Mix cilantro and lime juice into shrimp mixture. Pour ketchup and tomato juice over salad and mix well; season with salt."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Seafood Salad Recipes"},{"recipe_tags":"Shrimp Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"100\nCalories\n\n\n1g \nFat\n\n\n11g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699641230-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/M6UJn8rPgpDubMM0pMlrmlRcdgI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/24897santa-fe-rice-saladsouplovingnicole4x3-0ea6318359484c45b911f3da440d4c9d.jpg"
@@ -854,59 +1155,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24897/santa-fe-rice-salad/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Santa Fe Rice Salad</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅔ cup uncooked white rice\n\n\n1 ⅓ cups water\n\n\n¾ cup black beans, drained and rinsed\n\n\n1 large tomato, seeded and diced\n\n\n¾ cup shredded Cheddar cheese\n\n\n⅓ cup sliced green onions\n\n\n⅓ cup vegetable oil\n\n\n¼ cup vinegar\n\n\n1 tablespoon diced jalapeno peppers\n\n\n½ teaspoon white sugar\n\n\n  salt to taste\n\n\n1  avocado - peeled, pitted and diced"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅔ cup uncooked white rice\n\n\n1 ⅓ cups water\n\n\n¾ cup black beans, drained and rinsed\n\n\n1 large tomato, seeded and diced\n\n\n¾ cup shredded Cheddar cheese\n\n\n⅓ cup sliced green onions\n\n\n⅓ cup vegetable oil\n\n\n¼ cup vinegar\n\n\n1 tablespoon diced jalapeno peppers\n\n\n½ teaspoon white sugar\n\n\n  salt to taste\n\n\n1  avocado - peeled, pitted and diced'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a saucepan, bring water to a boil. Add rice and stir. Reduce heat, cover and simmer for 20 minutes. Remove from heat and chill."},{"recipe_directions":"In a large bowl, mix together the rice, beans, tomato, cheese and green onion."},{"recipe_directions":"In a small bowl, whisk together the oil, vinegar, peppers, sugar and salt. Pour over the rice mixture and toss to coat. Cover and refrigerate salad for 30 minutes. Top with avocado just before serving."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Grains"},{"recipe_tags":"Rice Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"334\nCalories\n\n\n22g \nFat\n\n\n27g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699641238-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/wnBNL95brLyVoureX5aTJoTqQBA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Shrimp-and-Garlic-lutzflcat-1x1-1-2000-3a47ca19027145c8a75c9556641b36d2.jpg"
@@ -920,59 +1217,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21638/cold-shrimp-salad/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Cold Shrimp Salad</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nChill Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds cooked medium shrimp, peeled and deveined without tail\n\n\n1  green bell pepper, finely chopped\n\n\n1  red bell pepper, finely chopped\n\n\n5 cloves garlic, minced\n\n\n1  sweet onion, diced\n\n\n  chopped fresh cilantro\n\n\n1  avocado - peeled, pitted and diced\n\n\n  salt and pepper to taste\n\n\n½ cup olive oil\n\n\n  chili pepper flakes"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds cooked medium shrimp, peeled and deveined without tail\n\n\n1  green bell pepper, finely chopped\n\n\n1  red bell pepper, finely chopped\n\n\n5 cloves garlic, minced\n\n\n1  sweet onion, diced\n\n\n  chopped fresh cilantro\n\n\n1  avocado - peeled, pitted and diced\n\n\n  salt and pepper to taste\n\n\n½ cup olive oil\n\n\n  chili pepper flakes'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place shrimp in a large mixing bowl with red and green bell peppers, garlic, onion, cilantro, and avocado. Drizzle with olive oil, and season with salt and pepper. Cover, and refrigerate for at least 1 hour to allow flavors to develop. Serve chilled."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Seafood Salad Recipes"},{"recipe_tags":"Shrimp Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"231\nCalories\n\n\n15g \nFat\n\n\n5g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699641243-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/sZw2meqFdXaA29OF9AKwy3t6Vj8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/4544094-95af2dde3ca44c58bac92f40ceeacbef.jpg"
@@ -985,59 +1278,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/259092/mexican-mango-salad/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Mexican Mango Salad</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  avocados, cut into cubes\n\n\n20  cherry tomatoes, halved\n\n\n1  mango, cubed\n\n\n2 cups mixed salad greens\n\n\n2 cups bite-size pieces of romaine lettuce\n\n\n½  red onion, chopped\n\n\n3  green onions, chopped"},{"recipe_ingredients":"4  limes, juiced\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon white sugar\n\n\n¼ teaspoon ground red pepper\n\n\n¼ teaspoon ground cumin\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  avocados, cut into cubes\n\n\n20  cherry tomatoes, halved\n\n\n1  mango, cubed\n\n\n2 cups mixed salad greens\n\n\n2 cups bite-size pieces of romaine lettuce\n\n\n½  red onion, chopped\n\n\n3  green onions, chopped'}, {'recipe_ingredients': '4  limes, juiced\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon white sugar\n\n\n¼ teaspoon ground red pepper\n\n\n¼ teaspoon ground cumin\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine avocados, tomatoes, mango, mixed greens, romaine lettuce, red onion, and green onions in a bowl. Toss salad until evenly mixed."},{"recipe_directions":"Combine lime juice, olive oil, sugar, red pepper, cumin, salt, and black pepper in a separate bowl. Whisk dressing until blended. Pour into the salad; toss briefly and serve."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Avocado Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"314\nCalories\n\n\n22g \nFat\n\n\n33g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699641249-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1DGHIoTMnW2T6xdliZANhD6U-HQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2228045-e766bce1359643c4975706573280cca8.jpg"
@@ -1050,59 +1339,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242062/mexican-chicken-quinoa-salad/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Mexican Chicken Quinoa Salad</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup water\n\n\n½ cup quinoa\n\n\n1 package taco seasoning mix, divided\n\n\n2  chicken breasts, cut into small cubes\n\n\n1 teaspoon butter\n\n\n1  avocado, peeled and chopped\n\n\n½  red onion, chopped\n\n\n2 stalks celery, chopped\n\n\n1 cup chopped spinach\n\n\n1  carrot, chopped\n\n\n½  red bell pepper, chopped\n\n\n½  yellow bell pepper, chopped\n\n\n⅓  cucumber, chopped\n\n\n2  jalapeno peppers, seeded and chopped\n\n\n½ cup salsa"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup water\n\n\n½ cup quinoa\n\n\n1 package taco seasoning mix, divided\n\n\n2  chicken breasts, cut into small cubes\n\n\n1 teaspoon butter\n\n\n1  avocado, peeled and chopped\n\n\n½  red onion, chopped\n\n\n2 stalks celery, chopped\n\n\n1 cup chopped spinach\n\n\n1  carrot, chopped\n\n\n½  red bell pepper, chopped\n\n\n½  yellow bell pepper, chopped\n\n\n⅓  cucumber, chopped\n\n\n2  jalapeno peppers, seeded and chopped\n\n\n½ cup salsa'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water, quinoa, and 1/2 of the taco seasoning mix to a boil in a saucepan. Reduce heat to low, cover, and simmer until quinoa is tender and water has been absorbed, about 15 minutes."},{"recipe_directions":"Mix chicken and remaining taco seasoning mix together in a bowl; let sit for chicken to season, about 10 minutes."},{"recipe_directions":"Heat butter in a skillet over medium heat; cook and stir chicken until no longer pink in the center, 5 to 10 minutes. Place chicken and quinoa in a bowl and place in freezer until cooled, about 5 minutes."},{"recipe_directions":"Combine avocado, red onion, celery, spinach, carrot, red bell pepper, yellow bell pepper, cucumber, and jalapeno peppers in a large bowl; add chicken-quinoa mixture and salsa and mix well."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Grains"},{"recipe_tags":"Quinoa Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"300\nCalories\n\n\n11g \nFat\n\n\n33g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699641253-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ijJNG3Lcakt94KZeXc1fPcRaLco=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1149x0:1151x2):format(webp)/8340682-a730d2c89aff48a480db794a92c77c05.jpg"
@@ -1115,59 +1400,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/75037/jicama-corn-salad/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Jicama Corn Salad</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups frozen corn kernels, thawed\n\n\n2 pounds jicama, peeled and diced\n\n\n4 medium mangos - peeled, seeded, and diced\n\n\n1 cup chopped red onion\n\n\n½ cup chopped fresh cilantro\n\n\n½ cup lime juice\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups frozen corn kernels, thawed\n\n\n2 pounds jicama, peeled and diced\n\n\n4 medium mangos - peeled, seeded, and diced\n\n\n1 cup chopped red onion\n\n\n½ cup chopped fresh cilantro\n\n\n½ cup lime juice\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large serving bowl, combine the corn kernels, jicama, mango, red onion and cilantro. Pour the lime juice over, and season with salt and pepper. Toss until well blended."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Corn Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"196\nCalories\n\n\n1g \nFat\n\n\n48g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699641260-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6pwgKIZODUPoxmQcUoN5RYrPaDY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2351999-968f5c2890294792bdb6eb0a23975d6c.jpg"
@@ -1180,59 +1461,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241551/mexican-style-black-bean-and-corn-salad/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Mexican-Style Black Bean and Corn Salad</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can black beans, rinsed and drained\n\n\n2  avocados - peeled, pitted, and cut into small cubes\n\n\n1 (8.75 ounce) can whole kernel corn, drained\n\n\n1 small red bell pepper, diced\n\n\n¾ cup picante sauce\n\n\n½ cup chopped cilantro\n\n\n¼  yellow onion, diced\n\n\n2 tablespoons lemon juice\n\n\n1 tablespoon olive oil\n\n\n1 clove garlic, minced\n\n\n½ teaspoon ground cumin"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can black beans, rinsed and drained\n\n\n2  avocados - peeled, pitted, and cut into small cubes\n\n\n1 (8.75 ounce) can whole kernel corn, drained\n\n\n1 small red bell pepper, diced\n\n\n¾ cup picante sauce\n\n\n½ cup chopped cilantro\n\n\n¼  yellow onion, diced\n\n\n2 tablespoons lemon juice\n\n\n1 tablespoon olive oil\n\n\n1 clove garlic, minced\n\n\n½ teaspoon ground cumin'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix black beans avocado, corn, red bell pepper, picante sauce, cilantro, onion, lemon juice, olive oil, garlic, and cumin in a large bowl until ingredients are well integrated."},{"recipe_directions":"Cover bowl with plastic wrap and refrigerate until salad is chilled, at least 1 hour."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Corn Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"183\nCalories\n\n\n10g \nFat\n\n\n22g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699641267-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/VkoxzOaNyfBVV8IHLzv-TVrKHzk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/350903-905732b47e7d4e828679d706542556b6.jpg"
@@ -1245,59 +1522,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/35393/bean-salad/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Bean Salad</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n8 \n\n\nYield:\n8 serving"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (14.5 ounce) can black beans\n\n\n1 (14.5 ounce) can dark red kidney beans\n\n\n1 (15 ounce) can garbanzo beans\n\n\n1 (14.5 ounce) can pinto beans\n\n\n1 (10 ounce) package frozen corn kernels, thawed\n\n\n1 tablespoon vegetable oil\n\n\n1 teaspoon cumin\n\n\n2 tablespoons chili powder\n\n\n1 teaspoon lime juice\n\n\n1 (8 ounce) jar chunky salsa\n\n\n1 pinch dried parsley"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (14.5 ounce) can black beans\n\n\n1 (14.5 ounce) can dark red kidney beans\n\n\n1 (15 ounce) can garbanzo beans\n\n\n1 (14.5 ounce) can pinto beans\n\n\n1 (10 ounce) package frozen corn kernels, thawed\n\n\n1 tablespoon vegetable oil\n\n\n1 teaspoon cumin\n\n\n2 tablespoons chili powder\n\n\n1 teaspoon lime juice\n\n\n1 (8 ounce) jar chunky salsa\n\n\n1 pinch dried parsley'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour beans into a colander, and rinse under running water."},{"recipe_directions":"In a large mixing bowl, toss beans and corn together with oil, cumin, chili powder, lime juice, and salsa. Sprinkle with parsley, cover, and chill."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Beans"},{"recipe_tags":"Bean and Corn Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"238\nCalories\n\n\n4g \nFat\n\n\n43g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699641273-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CKB9dXE5Fc4LRWDtfm-nXz8iINA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1029827-e4bd7d2ea30e4683bfa7380e59716096.jpg"
@@ -1310,59 +1583,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/86916/kikis-mexican-chicken-salad/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Kiki's Mexican Chicken Salad</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ½ cups shredded cooked chicken meat\n\n\n½ cup julienned carrots\n\n\n¼ cup julienned red bell pepper\n\n\n¼ cup julienned jicama\n\n\n¼ cup julienned red onion\n\n\n2 (11 ounce) cans whole kernel corn, drained\n\n\n1 cup cherry tomatoes, halved\n\n\n3 avocados, peeled, pitted, and chopped\n\n\n2 tablespoons chopped fresh cilantro\n\n\n½ cup sour cream\n\n\n⅔ cup mayonnaise\n\n\n2 tablespoons fresh lemon juice\n\n\n½ teaspoon ground cumin\n\n\n½ teaspoon salt\n\n\n¼ teaspoon pepper\n\n\n1 (1.25 ounce) package taco seasoning\n\n\n1 teaspoon hot pepper sauce"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ½ cups shredded cooked chicken meat\n\n\n½ cup julienned carrots\n\n\n¼ cup julienned red bell pepper\n\n\n¼ cup julienned jicama\n\n\n¼ cup julienned red onion\n\n\n2 (11 ounce) cans whole kernel corn, drained\n\n\n1 cup cherry tomatoes, halved\n\n\n3 avocados, peeled, pitted, and chopped\n\n\n2 tablespoons chopped fresh cilantro\n\n\n½ cup sour cream\n\n\n⅔ cup mayonnaise\n\n\n2 tablespoons fresh lemon juice\n\n\n½ teaspoon ground cumin\n\n\n½ teaspoon salt\n\n\n¼ teaspoon pepper\n\n\n1 (1.25 ounce) package taco seasoning\n\n\n1 teaspoon hot pepper sauce'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, gently mix chicken, carrots, red bell pepper, jicama, red onion, corn, cherry tomatoes, avocados, and cilantro."},{"recipe_directions":"In a separate bowl, mix sour cream, mayonnaise, lemon juice, cumin, salt, pepper, taco seasoning, and hot pepper sauce. Pour over salad and toss to coat. Cover and refrigerate at least 1 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"607\nCalories\n\n\n44g \nFat\n\n\n38g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699641279-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bPAsI1gNEV0N6OWP-mDPOvIKwpc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/848406-870c7d10242042c796580ff640dfec8d.jpg"
@@ -1375,59 +1644,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/170444/guacamole-salad/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Guacamole Salad</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  avocados - peeled, pitted, and sliced\n\n\n2  tomatoes, seeded and chopped\n\n\n½ small red onion, chopped\n\n\n½  cucumber, sliced\n\n\n1 small fresh jalapeno pepper, seeded and diced\n\n\n1 (15.25 ounce) can whole kernel corn, drained\n\n\n½ teaspoon garlic salt\n\n\n  salt and black pepper to taste\n\n\n  juice of 1 fresh lime\n\n\n¼ cup extra virgin olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  avocados - peeled, pitted, and sliced\n\n\n2  tomatoes, seeded and chopped\n\n\n½ small red onion, chopped\n\n\n½  cucumber, sliced\n\n\n1 small fresh jalapeno pepper, seeded and diced\n\n\n1 (15.25 ounce) can whole kernel corn, drained\n\n\n½ teaspoon garlic salt\n\n\n  salt and black pepper to taste\n\n\n  juice of 1 fresh lime\n\n\n¼ cup extra virgin olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Lightly toss avocados, tomatoes, red onion, cucumber, jalapeno, and corn in a salad bowl until well mixed, and sprinkle with garlic salt, salt, and black pepper."},{"recipe_directions":"Mix lime juice with olive oil in a small bowl, and pour over the salad. Chill for at least 30 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"278\nCalories\n\n\n22g \nFat\n\n\n21g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699641284-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HyNSVS8kGp6DlsASyLm-2Wy31n0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3839640-38fa90cd003049f2bdf70f1aa4b3e92a.jpg"
@@ -1440,59 +1705,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/221915/quick-taco-salad/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Quick Taco Salad</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds ground beef chuck \n\n\n2 envelopes taco seasoning mix\n\n\n1 ½ cups water\n\n\n1  onion, chopped\n\n\n2 cups green leaf lettuce, shredded \n\n\n1 cup cherry tomatoes, halved\n\n\n2 cups shredded Cheddar/Monterey Jack cheese blend\n\n\n½ cup chopped black olives\n\n\n2 cups salsa\n\n\n2  jalapeno peppers, seeded and chopped (Optional)\n\n\n1 cup sour cream\n\n\n1 (10.5 ounce) bag corn chips (such as Fritos®)"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds ground beef chuck \n\n\n2 envelopes taco seasoning mix\n\n\n1 ½ cups water\n\n\n1  onion, chopped\n\n\n2 cups green leaf lettuce, shredded \n\n\n1 cup cherry tomatoes, halved\n\n\n2 cups shredded Cheddar/Monterey Jack cheese blend\n\n\n½ cup chopped black olives\n\n\n2 cups salsa\n\n\n2  jalapeno peppers, seeded and chopped (Optional)\n\n\n1 cup sour cream\n\n\n1 (10.5 ounce) bag corn chips (such as Fritos®)'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Brown ground beef in a large skillet over medium heat until crumbly and no longer pink, about 10 minutes; drain excess grease. Mix in taco seasoning mix and water. Bring the beef mixture to a boil and cook until thickened, about 10 more minutes. Transfer beef to a serving bowl."},{"recipe_directions":"Place chopped onion, lettuce, cherry tomatoes, Cheddar cheese, black olives, salsa, jalapeno peppers, sour cream, and corn chips in individual serving bowls. Allow diners to assemble their own salads from the ingredients."},{"recipe_directions":"Aluminum foil helps keep food moist, ensures it cooks evenly, keeps leftovers fresh, and makes clean-up easy."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Taco Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"638\nCalories\n\n\n41g \nFat\n\n\n37g \nCarbs\n\n\n30g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699641291-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SAajHcJV2BpFYOg84EuB-VIjnSs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1919x0:1921x2):format(webp)/4534988-4f7144eab6a3461a952a5bb5ff4360ee.jpg"
@@ -1505,59 +1766,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/238061/corn-salad-with-lime-vinaigrette/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Corn Salad with Lime Vinaigrette</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (14.5 ounce) can whole kernel corn, drained\n\n\n2  tomatoes, diced\n\n\n1  avocado, diced\n\n\n½  white onion, diced\n\n\n1  jalapeno pepper, or more to taste, seeded and diced\n\n\n½ cup chopped fresh cilantro\n\n\n¼ cup olive oil\n\n\n1  lime, juiced\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (14.5 ounce) can whole kernel corn, drained\n\n\n2  tomatoes, diced\n\n\n1  avocado, diced\n\n\n½  white onion, diced\n\n\n1  jalapeno pepper, or more to taste, seeded and diced\n\n\n½ cup chopped fresh cilantro\n\n\n¼ cup olive oil\n\n\n1  lime, juiced\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix corn, tomatoes, avocado, onion, jalapeno pepper, and cilantro together in a bowl."},{"recipe_directions":"Whisk olive oil, and lime juice together in a small bowl; drizzle over the corn salad. Season salad with salt and pepper."},{"recipe_directions":"Cover bowl with plastic wrap and refrigerate at least 30 minutes."},{"recipe_directions":"Cook's Note:"},{"recipe_directions":"Avocado can be added immediately prior to serving to avoid browning."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Corn Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"154\nCalories\n\n\n11g \nFat\n\n\n15g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699641296-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Fqnk_1uAxTYlPqRk4I0hIW_1Q10=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/5525724-6c5b2db709c54720b2734ea4a1a0d708.jpg"
@@ -1570,59 +1827,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264429/easy-keto-taco-salad-bowl-for-2/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Easy Keto Taco Salad Bowl for 2</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n½ pound ground beef\n\n\n1 teaspoon taco seasoning\n\n\n3 cups chopped romaine lettuce\n\n\n1  avocado - peeled, pitted, and cubed\n\n\n½ cup cherry tomato halves\n\n\n2 tablespoons chopped green onions\n\n\n2 tablespoons salsa\n\n\n¼ cup sour cream\n\n\n1 tablespoon cilantro leaves"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n½ pound ground beef\n\n\n1 teaspoon taco seasoning\n\n\n3 cups chopped romaine lettuce\n\n\n1  avocado - peeled, pitted, and cubed\n\n\n½ cup cherry tomato halves\n\n\n2 tablespoons chopped green onions\n\n\n2 tablespoons salsa\n\n\n¼ cup sour cream\n\n\n1 tablespoon cilantro leaves'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a skillet over medium heat. Add ground beef; cook and stir until browned and crumbly, about 7 minutes. Stir in taco seasoning and cook for another 2 minutes."},{"recipe_directions":"Divide lettuce, avocado, tomatoes, and green onions between 2 bowls; place ground beef on top. Top taco bowls with salsa, sour cream, and cilantro."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Taco Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"548\nCalories\n\n\n45g \nFat\n\n\n16g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699641302-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/06fXV1Nh0mXvPH8i80qEQ9GAsJI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2387124-f775ef83360d43c38ce2f4721ef300e9.jpg"
@@ -1635,59 +1888,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223010/spicy-dorito-taco-salad/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Spicy Dorito® Taco Salad</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound ground beef\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon chili powder\n\n\n¼ teaspoon ground black pepper\n\n\n1 head lettuce, chopped\n\n\n5 cups crushed nacho cheese-flavored tortilla chips\n\n\n2 cups shredded Colby-Jack cheese\n\n\n1 (15 ounce) can dark red kidney beans, drained and rinsed\n\n\n1  tomato, diced\n\n\n⅓ cup chopped onion\n\n\n¼ cup pickled jalapeno peppers, chopped\n\n\n1 cup vegetable oil\n\n\n½ cup white sugar\n\n\n½ cup ketchup\n\n\n1 envelope taco seasoning mix\n\n\n2 tablespoons cider vinegar\n\n\n1 tablespoon Worcestershire sauce"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound ground beef\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon chili powder\n\n\n¼ teaspoon ground black pepper\n\n\n1 head lettuce, chopped\n\n\n5 cups crushed nacho cheese-flavored tortilla chips\n\n\n2 cups shredded Colby-Jack cheese\n\n\n1 (15 ounce) can dark red kidney beans, drained and rinsed\n\n\n1  tomato, diced\n\n\n⅓ cup chopped onion\n\n\n¼ cup pickled jalapeno peppers, chopped\n\n\n1 cup vegetable oil\n\n\n½ cup white sugar\n\n\n½ cup ketchup\n\n\n1 envelope taco seasoning mix\n\n\n2 tablespoons cider vinegar\n\n\n1 tablespoon Worcestershire sauce'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook ground beef, garlic powder, chili powder, and black pepper together in a skillet over medium heat until meat is brown and crumbly, about 10 minutes, breaking the meat up into chunks as it cooks. Drain excess grease, remove from heat, and let the meat cool."},{"recipe_directions":"Toss lettuce, tortilla chips, Colby-Jack cheese, kidney beans, tomato, onion, and pickled jalapeno peppers in a large salad bowl; mix in the beef."},{"recipe_directions":"Whisk vegetable oil, sugar, ketchup, taco seasoning, cider vinegar, and Worcestershire sauce together in a bowl until sugar has dissolved; pour dressing over the salad and toss again."},{"recipe_directions":"If you prefer, you can add the chips just before serving to keep them crunchy. I prefer to let them marinate in the dressing."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Taco Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"561\nCalories\n\n\n40g \nFat\n\n\n34g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699641309-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZaX34rm0ly48MlYiU7yPi6UjMRE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2250012-d2c5cf9c0d1343d2b80ae75024498f24.jpg"
@@ -1700,59 +1949,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222053/spicy-black-bean-salad/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Spicy Black Bean Salad</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (15 ounce) cans black beans, drained and rinsed\n\n\n1 (15.25 ounce) can whole kernel corn, drained\n\n\n1  red onion, diced\n\n\n¾ cup salsa, or as desired\n\n\n½ cup olive oil\n\n\n½ cup chopped fresh cilantro\n\n\n3 cloves garlic, minced\n\n\n2 tablespoons lemon juice\n\n\n1 tablespoon red wine vinegar\n\n\n1 ½ teaspoons ground cumin\n\n\n1 teaspoon salt\n\n\n¼ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (15 ounce) cans black beans, drained and rinsed\n\n\n1 (15.25 ounce) can whole kernel corn, drained\n\n\n1  red onion, diced\n\n\n¾ cup salsa, or as desired\n\n\n½ cup olive oil\n\n\n½ cup chopped fresh cilantro\n\n\n3 cloves garlic, minced\n\n\n2 tablespoons lemon juice\n\n\n1 tablespoon red wine vinegar\n\n\n1 ½ teaspoons ground cumin\n\n\n1 teaspoon salt\n\n\n¼ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix black beans, corn, red onion, salsa, olive oil, cilantro, garlic, lemon juice, vinegar, cumin, salt, and black pepper in a large bowl. Cover and refrigerate at least 1 hour to 2 days. Serve chilled."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Beans"},{"recipe_tags":"Black Bean Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"221\nCalories\n\n\n12g \nFat\n\n\n25g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699641315-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DaUNQBXBJdXnusmQ8Quc_MLElCM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/882695-40fee793df284d29bcac411259ac9149.jpg"
@@ -1765,59 +2010,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223166/mexicali-pasta-salad/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Mexicali Pasta Salad</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package tri-color rotini pasta\n\n\n1 (15 ounce) can black beans, drained and rinsed\n\n\n1 (11 ounce) can Mexican-style corn, drained\n\n\n1 (4 ounce) can chopped green chilies\n\n\n½ cup chopped red bell pepper\n\n\n½ cup Italian-style salad dressing, or more to taste\n\n\n½ cup shredded Mexican cheese blend\n\n\n3  green onions, thinly sliced\n\n\n⅓ cup minced fresh cilantro\n\n\n1 slice onion, minced\n\n\n2 tablespoons taco seasoning mix\n\n\n½  lime, juiced"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package tri-color rotini pasta\n\n\n1 (15 ounce) can black beans, drained and rinsed\n\n\n1 (11 ounce) can Mexican-style corn, drained\n\n\n1 (4 ounce) can chopped green chilies\n\n\n½ cup chopped red bell pepper\n\n\n½ cup Italian-style salad dressing, or more to taste\n\n\n½ cup shredded Mexican cheese blend\n\n\n3  green onions, thinly sliced\n\n\n⅓ cup minced fresh cilantro\n\n\n1 slice onion, minced\n\n\n2 tablespoons taco seasoning mix\n\n\n½  lime, juiced'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil; cook the rotini at a boil until tender yet firm to the bite, about 8 minutes; drain."},{"recipe_directions":"Mix black beans, corn, green chilies, red bell pepper, Italian dressing, Mexican cheese, green onions, cilantro, onion, taco seasoning, and lime juice together in a bowl. Add rotini and lightly stir to combine."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Rotini Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"246\nCalories\n\n\n6g \nFat\n\n\n41g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699641321-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SrYVoc_drqrrI5c4jefgrjoWZAg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2288867-122487fe481248139bb3d79c68cb3389.jpg"
@@ -1830,59 +2071,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232324/easy-corn-salad-great-side-for-bbqs/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Easy Corn Salad — Great Side for BBQs</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n24"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (10 ounce) cans diced tomatoes with green chile peppers (such as RO*TEL)\n\n\n2 (15 ounce) cans whole-kernel corn with red and green bell peppers, drained\n\n\n1 (15.25 ounce) can yellow and white corn, drained\n\n\n2 (11 ounce) cans white corn with chipotle peppers\n\n\n1 large seedless cucumber, peeled and diced\n\n\n1 cup diced red bell peppers\n\n\n1 cup chopped fresh cilantro leaves\n\n\n¼ cup diced red onion, or more to taste\n\n\n1 ½  limes, juiced"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (10 ounce) cans diced tomatoes with green chile peppers (such as RO*TEL)\n\n\n2 (15 ounce) cans whole-kernel corn with red and green bell peppers, drained\n\n\n1 (15.25 ounce) can yellow and white corn, drained\n\n\n2 (11 ounce) cans white corn with chipotle peppers\n\n\n1 large seedless cucumber, peeled and diced\n\n\n1 cup diced red bell peppers\n\n\n1 cup chopped fresh cilantro leaves\n\n\n¼ cup diced red onion, or more to taste\n\n\n1 ½  limes, juiced'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix diced tomatoes with chile peppers, all corn, cucumber, bell peppers, cilantro, red onion, and lime juice together in a large bowl."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Corn Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"65\nCalories\n\n\n1g \nFat\n\n\n16g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699641327-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HHfKocW9xtLtiyVwmy8XRcTnl2Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1507x0:1509x2):format(webp)/7126379-ad94308295b54d0fbfda9a2e0f756647.jpg"
@@ -1893,59 +2130,55 @@
 Tajin® Fruit Salad</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/276468/tajin-fruit-salad/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Tajin® Fruit Salad</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large  oranges, peeled and segmented\n\n\n1  mango, diced\n\n\n1 cup diced fresh pineapple\n\n\n1 cup diced jicama\n\n\n1 small cucumber, sliced\n\n\n1  banana, sliced\n\n\n2  limes, juiced\n\n\n1 tablespoon chile-lime seasoning (such as Tajin®), or more to taste\n\n\n½ teaspoon chopped fresh mint, or to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large  oranges, peeled and segmented\n\n\n1  mango, diced\n\n\n1 cup diced fresh pineapple\n\n\n1 cup diced jicama\n\n\n1 small cucumber, sliced\n\n\n1  banana, sliced\n\n\n2  limes, juiced\n\n\n1 tablespoon chile-lime seasoning (such as Tajin®), or more to taste\n\n\n½ teaspoon chopped fresh mint, or to taste (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut orange segments in half and place in a bowl. Add mango, pineapple, jicama, cucumber, and banana. Add lime juice and sprinkle with chile-lime seasoning; toss to coat. Sprinkle with mint."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Fruit Salad Recipes"},{"recipe_tags":"Orange Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"152\nCalories\n\n\n1g \nFat\n\n\n40g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699641333-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XBhQ0nz9wEu4-1G5LcM28L3EiOY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(324x0:326x2):format(webp)/fileRZphmU-75cce836f44e4196ad8a91bb2996297f.jpg"
@@ -1957,59 +2190,55 @@
 Our Best Kid-Friendly Gluten-Free Dinners</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/article/kid-friendly-gluten-free-dinners/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Our Best Kid-Friendly Gluten-Free Dinners</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Kids and their developing taste buds can sometimes fall on the picky side, and adding in a food intolerance makes dinnertime even more challenging. We get it — and we have some recipe ideas that will help. Our round-up of diverse and delicious kid-friendly gluten-free dinners will make mealtime easier."},{"recipe_directions":"\"These were phenomenal,\" says Mom22GreatKids of this recipe by Joan Dredge that uses leftover rotisserie chicken as the base. It's topped with a tasty sauce made of ranch dressing, taco seasoning, salsa, and sour cream. \"I followed the recipe exactly and it was a huge hit with the whole family!\""},{"recipe_directions":"Get the Recipe: Ranch Chicken Tacos"},{"recipe_directions":"Don't confuse this recipe with the similarly-named recipe, Solomon Gundy, the Nova Scotian herring appetizer/Jamaican fish pate recipe. This super-easy recipe by LORIEANN29 turns ground beef and vegetable soup into a Shepherd's Pie-like filling. It's perfect over mashed potatoes. \"This is a great recipe if you are looking for something, quick, cheap, and kid-friendly,\" says ALHART21. \"My three-year-old gobbles this up each time I make it.\""},{"recipe_directions":"Get the Recipe: Solomon Grundy"},{"recipe_directions":"GinnyG left a glowing review for this kebab recipe from dailyn2003 and put an extra little twist on it. \"I took some marinade and simmered until it was reduced by half into a glaze,\" she writes. \"I then brushed this over the kebobs...fabulous!\" Be sure to swap out the soy sauce for gluten-free tamari."},{"recipe_directions":"Get the Recipe: Hawaiian Chicken Kabobs"},{"recipe_directions":"Here's a tasty way to get your kids eating broccoli. Debra, this recipe's creator says, \"This is a great quick version of an Italian traditional side dish in our family all the way from Italy. You can use fresh tomatoes and basil. However, as a mother of four, I opt for the quick method. The kids really love this dish!\""},{"recipe_directions":"Get the Recipe: Awesome Broccoli Marinara"},{"recipe_directions":"\"This one's great for that leftover ham,\" says this recipe's creator, Melissa00. \"Cubed ham sautéed with onions and pineapple in a sweet sauce. Kids love it and it's great served over rice.\""},{"recipe_directions":"Get the Recipe: Ham and Pineapple Dinner"}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Kitchen Tips"},{"recipe_tags":"How To"},{"recipe_tags":"Dinner Fix"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699641337-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mbP6p6c2gYOjMDYFffNYFUY6XXg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1034372-9243809fa06a4c1b985484c53bcf664b.jpg"
@@ -2022,59 +2251,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/89630/mexican-orzo-salad/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Mexican Orzo Salad</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n24 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 34 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package orzo pasta\n\n\n1 small red bell pepper, chopped\n\n\n1 small yellow bell pepper, chopped\n\n\n1 bunch green onions, chopped\n\n\n1 small red onion, finely chopped\n\n\n1 (15 ounce) can chickpeas, rinsed and drained\n\n\n1 (15 ounce) can kidney beans, rinsed and drained\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n1 (8.75 ounce) can whole kernel corn, drained\n\n\n1 cup chopped cilantro leaves\n\n\n  salt to taste\n\n\n  pepper to taste\n\n\n5  limes, juiced\n\n\n6 tablespoons canola oil"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package orzo pasta\n\n\n1 small red bell pepper, chopped\n\n\n1 small yellow bell pepper, chopped\n\n\n1 bunch green onions, chopped\n\n\n1 small red onion, finely chopped\n\n\n1 (15 ounce) can chickpeas, rinsed and drained\n\n\n1 (15 ounce) can kidney beans, rinsed and drained\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n1 (8.75 ounce) can whole kernel corn, drained\n\n\n1 cup chopped cilantro leaves\n\n\n  salt to taste\n\n\n  pepper to taste\n\n\n5  limes, juiced\n\n\n6 tablespoons canola oil'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill a large pot with lightly salted water and bring to a boil over high heat. Stir in the orzo, and return to a boil. Cook the pasta uncovered, stirring occasionally, until the pasta has cooked through, but is still firm to the bite, about 10 minutes. Drain."},{"recipe_directions":"Place the drained orzo in a large salad bowl, and fold in the red pepper, yellow pepper, green onions, red onion, chickpeas, kidney beans, black beans, corn, cilantro, and salt and pepper to taste. Pour the lime juice and oil over the salad, toss to coat, and refrigerate at least 2 hours to chill before serving."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"457\nCalories\n\n\n13g \nFat\n\n\n74g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699641341-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TwsVpO_qG92m6rLvlTZdtUfXxbY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/874051-1b6cd9638746434f8dbd2d5773bb6739.jpg"
@@ -2087,59 +2312,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/62147/one-two-three-mexican-macaroni-salad/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>One - Two - Three - Mexican Macaroni Salad</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package dry macaroni\n\n\n1 ½ cups chunky salsa\n\n\n1 cup mayonnaise\n\n\n½ cup finely chopped green bell pepper\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon salt\n\n\n  ground black pepper to taste\n\n\n1 (6 ounce) can sliced black olives, drained (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package dry macaroni\n\n\n1 ½ cups chunky salsa\n\n\n1 cup mayonnaise\n\n\n½ cup finely chopped green bell pepper\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon salt\n\n\n  ground black pepper to taste\n\n\n1 (6 ounce) can sliced black olives, drained (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Add pasta and cook for 8 to 10 minutes or until al dente; rinse under cold running water, and drain."},{"recipe_directions":"In a large bowl, combine the salsa, mayonnaise, green pepper, garlic powder, salt, black pepper, and olives; mix well. Pour pasta into mixture, and stir to coat thoroughly. Cover, and refrigerate at least one hour before serving."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Vegetarian Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"368\nCalories\n\n\n20g \nFat\n\n\n39g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699641345-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7RUD1_IJ8aS-FFtzeALvOKEwRMo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/272404-df91b4f22fcf437ca99d27844532c9a7.jpg"
@@ -2152,59 +2373,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16138/taco-salad-ii/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Beef Taco Salad</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 8 hrs 30 mins\n\n\nTotal Time:\n 8 hrs 30 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound lean ground beef\n\n\n1 (1.25 ounce) package taco seasoning mix\n\n\n1 head iceberg lettuce - rinsed, dried, and shredded\n\n\n1  onion, chopped\n\n\n1  green bell pepper, chopped\n\n\n3 cups shredded Cheddar-Monterey Jack cheese blend\n\n\n2  tomatoes, chopped\n\n\n4 ounces crushed tortilla chips\n\n\n¼ cup French dressing, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound lean ground beef\n\n\n1 (1.25 ounce) package taco seasoning mix\n\n\n1 head iceberg lettuce - rinsed, dried, and shredded\n\n\n1  onion, chopped\n\n\n1  green bell pepper, chopped\n\n\n3 cups shredded Cheddar-Monterey Jack cheese blend\n\n\n2  tomatoes, chopped\n\n\n4 ounces crushed tortilla chips\n\n\n¼ cup French dressing, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place ground beef in a large, deep skillet. Cook and stir over medium-high heat until evenly brown. Drain and discard grease. Add taco seasoning mix and prepare according to package directions. Set aside to cool."},{"recipe_directions":"Combine cooled beef mixture, lettuce, onion, bell pepper, cheese, tomatoes, and tortilla chips in a large serving bowl. Add enough dressing to coat; mix well and refrigerate for 8 hours to overnight."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Taco Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"467\nCalories\n\n\n30g \nFat\n\n\n23g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699641349-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QnZ6wHMS-jjE9VERqT_bRXKtsg0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1302x0:1304x2):format(webp)/9180490-6c0202c8a9ff4f0badb0b97b2fc89f3c.jpg"
@@ -2217,59 +2434,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279678/mexican-corn-off-the-cob-salad/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Mexican Corn-off-the-Cob Salad</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 ears corn, with husks\n\n\n½  lime, juiced, or more to taste\n\n\n½ teaspoon chili powder\n\n\n5 ounces crumbled cotija cheese\n\n\n¼ cup packed chopped fresh cilantro\n\n\n4 tablespoons mayonnaise\n\n\n1 pinch ground black pepper to taste\n\n\n1 pinch salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 ears corn, with husks\n\n\n½  lime, juiced, or more to taste\n\n\n½ teaspoon chili powder\n\n\n5 ounces crumbled cotija cheese\n\n\n¼ cup packed chopped fresh cilantro\n\n\n4 tablespoons mayonnaise\n\n\n1 pinch ground black pepper to taste\n\n\n1 pinch salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for medium-high heat and lightly oil the grate."},{"recipe_directions":"Grill corn in the husks on the preheated grill, turning occasionally, to desired tenderness, about 15 minutes; some charring is fine. Remove from the grill. Remove and discard husks and silk when cool enough to handle. Cut kernels off into a medium bowl."},{"recipe_directions":"Add lime juice and chili powder, then mix in cotija cheese, cilantro, mayonnaise, and pepper until thoroughly combined. Taste and add salt if necessary."},{"recipe_directions":"I've used a good feta cheese when I couldn't find cotija. Paprika can be used in place of chili powder."},{"recipe_directions":"You can soak the corn in the husks if you want; I don't normally soak them."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Corn Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"209\nCalories\n\n\n15g \nFat\n\n\n14g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699641353-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tl2QJVl6XfES2_Pc44HNmopLLOw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1012720-26c5c9803302422683df0f9e192f468b.jpg"
@@ -2282,59 +2495,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/213030/avocado-and-black-eyed-pea-salsa/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Avocado and Black Eyed Pea Salsa</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  ripe but firm avocados, diced\n\n\n½ cup chopped green onion\n\n\n½ cup chopped fresh cilantro\n\n\n1 cup chopped roma (plum) tomatoes\n\n\n1 (11 ounce) can shoepeg corn, drained\n\n\n1 (15 ounce) can black-eyed peas, rinsed and drained\n\n\n¼ cup red wine vinegar\n\n\n¼ cup olive oil\n\n\n1 teaspoon ground cumin\n\n\n½ teaspoon minced garlic\n\n\n  salt and black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  ripe but firm avocados, diced\n\n\n½ cup chopped green onion\n\n\n½ cup chopped fresh cilantro\n\n\n1 cup chopped roma (plum) tomatoes\n\n\n1 (11 ounce) can shoepeg corn, drained\n\n\n1 (15 ounce) can black-eyed peas, rinsed and drained\n\n\n¼ cup red wine vinegar\n\n\n¼ cup olive oil\n\n\n1 teaspoon ground cumin\n\n\n½ teaspoon minced garlic\n\n\n  salt and black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Lightly mix together avocados, green onion, cilantro, tomatoes, corn, and black-eyed peas in a salad bowl until well combined."},{"recipe_directions":"Whisk together red wine vinegar, olive oil, cumin, and minced garlic in a bowl, and pour over the salad. Season to taste with salt and pepper, and lightly toss the salad again. Chill for 1 hour before serving, to blend the flavors."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Beans"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"154\nCalories\n\n\n10g \nFat\n\n\n15g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699641357-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1HxfnRu4QEojElDQWE9bZLNhwTA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2988348-25033348ee41427e8cf29bcd5e5f8416.jpg"
@@ -2347,59 +2556,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14270/spicy-tex-mex-salad/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Spicy Tex-Mex Salad</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can pinto beans, drained and rinsed\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n3  tomatoes, chopped\n\n\n1 ½ cups shredded Cheddar and Monterey cheese blend\n\n\n1 (10 ounce) package chopped romaine lettuce\n\n\n1 (16 ounce) bottle Catalina salad dressing\n\n\n1 (16 ounce) package corn chips"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can pinto beans, drained and rinsed\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n3  tomatoes, chopped\n\n\n1 ½ cups shredded Cheddar and Monterey cheese blend\n\n\n1 (10 ounce) package chopped romaine lettuce\n\n\n1 (16 ounce) bottle Catalina salad dressing\n\n\n1 (16 ounce) package corn chips'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, combine pinto beans, black beans, tomatoes, cheese blend, and lettuce. Add 3/4 of the dressing and mix well. Add corn chips before serving."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Green Salad Recipes"},{"recipe_tags":"Romaine Lettuce Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"542\nCalories\n\n\n33g \nFat\n\n\n53g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699641360-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/PyUGcUynL-XDYHnh_9559_-oW2g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/Barley-Lime-Fiesta-Salad-91ec6ac68acb41e4840c93d430607253.jpg"
@@ -2413,59 +2618,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/217156/barley-lime-fiesta-salad/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Barley Lime Fiesta Salad</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups water\n\n\n1 cup pearl barley\n\n\n1 (8.75 ounce) can whole kernel corn, drained\n\n\n½ (15 ounce) can black beans, rinsed and drained\n\n\n1 small red onion, chopped\n\n\n½  green bell pepper, chopped\n\n\n½  red bell pepper, chopped\n\n\n1 large carrot, chopped\n\n\n1 stalk celery, chopped\n\n\n¾  chipotle pepper in adobo sauce, finely chopped, or to taste\n\n\n1 tablespoon canola oil\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon ground cumin"},{"recipe_ingredients":"¼ cup water\n\n\n¼ cup chopped fresh cilantro\n\n\n2 tablespoons light corn syrup, or to taste\n\n\n1 tablespoon canola oil, or to taste\n\n\n1 tablespoon lime juice, or to taste\n\n\n1 tablespoon lemon juice, or to taste\n\n\n1 teaspoon distilled white vinegar, or to taste\n\n\n¼ teaspoon onion powder, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups water\n\n\n1 cup pearl barley\n\n\n1 (8.75 ounce) can whole kernel corn, drained\n\n\n½ (15 ounce) can black beans, rinsed and drained\n\n\n1 small red onion, chopped\n\n\n½  green bell pepper, chopped\n\n\n½  red bell pepper, chopped\n\n\n1 large carrot, chopped\n\n\n1 stalk celery, chopped\n\n\n¾  chipotle pepper in adobo sauce, finely chopped, or to taste\n\n\n1 tablespoon canola oil\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon ground cumin'}, {'recipe_ingredients': '¼ cup water\n\n\n¼ cup chopped fresh cilantro\n\n\n2 tablespoons light corn syrup, or to taste\n\n\n1 tablespoon canola oil, or to taste\n\n\n1 tablespoon lime juice, or to taste\n\n\n1 tablespoon lemon juice, or to taste\n\n\n1 teaspoon distilled white vinegar, or to taste\n\n\n¼ teaspoon onion powder, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water and barley to a boil in a saucepan over high heat. Cover, reduce heat to low, and simmer until barley is tender, about 30 minutes. Remove from heat, drain if necessary, and chill barley in the refrigerator."},{"recipe_directions":"Combine cooled barley, corn, beans, onion, bell peppers, carrot, celery, chipotle pepper, oil, salt, black pepper, and cumin in a large salad bowl."},{"recipe_directions":"Make vinaigrette: Whisk together water, cilantro, corn syrup, oil, lime juice, lemon juice, vinegar, and onion powder in a medium bowl. Pour vinaigrette over barley mixture and toss to combine. Refrigerate salad until thoroughly chilled."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Grains"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"166\nCalories\n\n\n5g \nFat\n\n\n30g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699641365-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/594xpz0qPO7eCM-10yuHQjqQKyQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/856724-8cda81462155475981e080d478a9af0b.jpg"
@@ -2478,59 +2679,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223008/easy-dorito-taco-salad/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Easy Dorito® Taco Salad</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n15 \n\n\nYield:\n15 servings"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound ground beef\n\n\n1 envelope taco seasoning mix\n\n\n2 cups shredded Cheddar cheese\n\n\n2 cups ranch dressing\n\n\n½ cup Italian-style salad dressing\n\n\n1  red onion, diced\n\n\n1 head lettuce, shredded\n\n\n1 (17 ounce) package nacho-flavor tortilla chips, crushed into bite-size pieces"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound ground beef\n\n\n1 envelope taco seasoning mix\n\n\n2 cups shredded Cheddar cheese\n\n\n2 cups ranch dressing\n\n\n½ cup Italian-style salad dressing\n\n\n1  red onion, diced\n\n\n1 head lettuce, shredded\n\n\n1 (17 ounce) package nacho-flavor tortilla chips, crushed into bite-size pieces'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook ground beef in a skillet over medium heat, breaking the meat up as it cooks, until beef is browned and crumbly, about 10 minutes. Drain excess grease and stir in taco seasoning mix. Remove from heat and let stand until beef mixture is cool."},{"recipe_directions":"Mix ground beef with Cheddar cheese, ranch dressing, Italian dressing, and red onion in a large salad bowl. Chill the beef mixture until cold, at least 30 minutes. Lightly mix in lettuce and tortilla chips just before serving."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Taco Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"476\nCalories\n\n\n36g \nFat\n\n\n26g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699641368-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fir1HtQWov8rBkAnCkVqmEyVBxc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1035253-a7e6efd7d6a7438ebb0076f10bbc1f1d.jpg"
@@ -2543,59 +2740,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232456/simple-mexican-coleslaw/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Simple Mexican Coleslaw</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 cups very thinly sliced green cabbage\n\n\n1 ½ cups grated carrots\n\n\n¼ cup rice vinegar\n\n\n2 tablespoons extra-virgin olive oil\n\n\n⅓ cup chopped cilantro\n\n\n¼ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cups very thinly sliced green cabbage\n\n\n1 ½ cups grated carrots\n\n\n¼ cup rice vinegar\n\n\n2 tablespoons extra-virgin olive oil\n\n\n⅓ cup chopped cilantro\n\n\n¼ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place cabbage and carrots in a colander and rinse in cold water; let drain for 5 minutes."},{"recipe_directions":"Whisk rice vinegar and olive oil together in a large salad bowl. Mix in cilantro. Stir cabbage and carrots into dressing; season with salt."},{"recipe_directions":"Slaw can be served immediately or covered and refrigerated for up to 1 day."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Coleslaw Recipes"},{"recipe_tags":"No Mayo"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"52\nCalories\n\n\n4g \nFat\n\n\n5g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699641373-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ihiU6QNzLy0mWc0oWfOrrUa0FEo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1120890-1e4596c92a7f4026ab62a2cddcb1394f.jpg"
@@ -2608,59 +2801,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237270/baja-salad/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Baja Salad</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (12 ounce) package romaine lettuce leaves\n\n\n1 large tomato, diced\n\n\n1  avocado, diced\n\n\n1  pickling cucumber, diced\n\n\n¾ cup crumbled feta cheese\n\n\n¼ cup diced red onion\n\n\n¼ cup white corn kernels\n\n\n¼ cup cooked black beans\n\n\n¼ cup crushed tortilla chips, or to taste"},{"recipe_ingredients":"2 tablespoons olive oil (Optional)\n\n\n2 tablespoons lemon juice (Optional)\n\n\n¼ teaspoon ground cumin (Optional)\n\n\n1 pinch salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (12 ounce) package romaine lettuce leaves\n\n\n1 large tomato, diced\n\n\n1  avocado, diced\n\n\n1  pickling cucumber, diced\n\n\n¾ cup crumbled feta cheese\n\n\n¼ cup diced red onion\n\n\n¼ cup white corn kernels\n\n\n¼ cup cooked black beans\n\n\n¼ cup crushed tortilla chips, or to taste'}, {'recipe_ingredients': '2 tablespoons olive oil (Optional)\n\n\n2 tablespoons lemon juice (Optional)\n\n\n¼ teaspoon ground cumin (Optional)\n\n\n1 pinch salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place romaine lettuce in a large bowl. Add tomato, avocado, cucumber, feta cheese, onion, corn, and black beans; toss well. Sprinkle tortilla chips over salad."},{"recipe_directions":"Whisk olive oil, lemon juice, cumin, salt, and pepper together in a bowl until dressing is smooth; drizzle over salad."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"223\nCalories\n\n\n17g \nFat\n\n\n14g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699641376-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4_LKYEtGuNG5LEGMAbfgs6xpPGI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/642470-sues-taco-salad-Rock_lobster-4x3-1-b612af5f54b24bcb9d465667db12746a.jpg"
@@ -2674,59 +2863,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18071/sues-taco-salad/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Sue's Taco Salad</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound lean ground beef\n\n\n1 (1 ounce) package taco seasoning mix\n\n\n½ (14.5 ounce) package nacho-flavor tortilla chips\n\n\n2 cups shredded Cheddar cheese\n\n\n½ (15 ounce) can kidney beans, drained\n\n\n½ cup ranch-style salad dressing\n\n\n1  chopped tomato\n\n\n1 cup chopped lettuce\n\n\n¼ cup chopped green onion"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound lean ground beef\n\n\n1 (1 ounce) package taco seasoning mix\n\n\n½ (14.5 ounce) package nacho-flavor tortilla chips\n\n\n2 cups shredded Cheddar cheese\n\n\n½ (15 ounce) can kidney beans, drained\n\n\n½ cup ranch-style salad dressing\n\n\n1  chopped tomato\n\n\n1 cup chopped lettuce\n\n\n¼ cup chopped green onion'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place ground beef in a large, deep skillet over medium-high heat. Cook, stirring to crumble, until well done; drain. Stir in taco seasoning mix. Set aside to cool."},{"recipe_directions":"Place chips into a large bowl; crush them into bite-sized pieces. Combine with seasoned meat, cheese, beans, tomatoes, lettuce, and green onions."},{"recipe_directions":"Pour dressing on top; toss to coat."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Taco Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"626\nCalories\n\n\n42g \nFat\n\n\n33g \nCarbs\n\n\n28g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699641379-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vuwUFGYh8BiG_pZm6j4heTkD_pQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/6510925-6d105241d9d948cf9390e2aa1581253d.jpg"
@@ -2739,59 +2924,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/17182/mexican-cornbread-salad/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Mexican Cornbread Salad</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 2 hrs 15 mins\n\n\nTotal Time:\n 3 hrs\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8.5 ounce) package corn muffin mix (such as Jiffy®)\n\n\n1 (4 ounce) can diced green chile peppers, drained\n\n\n⅓ cup milk\n\n\n1 large egg\n\n\n2 (16 ounce) cans pinto beans, drained\n\n\n1 (16 ounce) bottle Ranch-style salad dressing\n\n\n1 medium green bell pepper, chopped\n\n\n2 (15.25 ounce) cans whole kernel corn, drained\n\n\n2 medium tomatoes, chopped\n\n\n1 (3 ounce) can bacon bits\n\n\n1 (8 ounce) package shredded Cheddar cheese\n\n\n1  green onion, thinly sliced"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8.5 ounce) package corn muffin mix (such as Jiffy®)\n\n\n1 (4 ounce) can diced green chile peppers, drained\n\n\n⅓ cup milk\n\n\n1 large egg\n\n\n2 (16 ounce) cans pinto beans, drained\n\n\n1 (16 ounce) bottle Ranch-style salad dressing\n\n\n1 medium green bell pepper, chopped\n\n\n2 (15.25 ounce) cans whole kernel corn, drained\n\n\n2 medium tomatoes, chopped\n\n\n1 (3 ounce) can bacon bits\n\n\n1 (8 ounce) package shredded Cheddar cheese\n\n\n1  green onion, thinly sliced'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Grease 6 muffin cups."},{"recipe_directions":"Mix corn muffin mix, chile peppers, milk, and egg together until combined but still slightly lumpy. Fill the prepared muffin cups 2/3 full."},{"recipe_directions":"Bake in the preheated oven until golden brown, 15 to 20 minutes. Let muffins cool for 15 minutes, then crumble into a bowl."},{"recipe_directions":"Using 1/2 of each ingredient, make layers in a large glass bowl in the following order: muffin crumbs, pinto beans, salad dressing, bell pepper, corn, tomatoes, bacon bits, Cheddar cheese, and green onion. Repeat layers once more."},{"recipe_directions":"Cover and refrigerate until chilled, about 2 hours."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"719\nCalories\n\n\n46g \nFat\n\n\n58g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699641384-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6A154UYwZZobY3ZtYcaZGMHrRz4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/5394238-f76e9a359a9d44f0a586f24a928b209f.jpg"
@@ -2804,59 +2985,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214796/mexican-fiesta-pasta-salad/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Mexican Pasta Salad</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 30 mins\n\n\nServings:\n16"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package dried rotini pasta\n\n\n1 ½ cups medium chunky salsa\n\n\n1 cup mayonnaise\n\n\n½ cup sour cream\n\n\n½ cup chopped red bell pepper\n\n\n1 (16 ounce) can black beans, rinsed and drained\n\n\n1 (11 ounce) can canned whole-kernel corn with red and green bell peppers\n\n\n1 (4.25 ounce) can sliced black olives, drained\n\n\n2  green onions, sliced thin\n\n\n1 teaspoon salt\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon ground cumin, or to taste\n\n\n½ teaspoon dried cilantro, or to taste\n\n\n  ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package dried rotini pasta\n\n\n1 ½ cups medium chunky salsa\n\n\n1 cup mayonnaise\n\n\n½ cup sour cream\n\n\n½ cup chopped red bell pepper\n\n\n1 (16 ounce) can black beans, rinsed and drained\n\n\n1 (11 ounce) can canned whole-kernel corn with red and green bell peppers\n\n\n1 (4.25 ounce) can sliced black olives, drained\n\n\n2  green onions, sliced thin\n\n\n1 teaspoon salt\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon ground cumin, or to taste\n\n\n½ teaspoon dried cilantro, or to taste\n\n\n  ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil; cook rotini at a boil until tender yet firm to the bite, about 8 minutes."},{"recipe_directions":"While the pasta is cooking, combine salsa, mayonnaise, sour cream, and bell pepper in a large bowl. Add black beans, corn, olives, green onions, salt, garlic powder, cumin, cilantro, and pepper; whisk until well combined."},{"recipe_directions":"Drain pasta, then rinse under cold running water until completely cooled. Drain again thoroughly."},{"recipe_directions":"Add cooled pasta to the salsa-vegetable mixture and stir until evenly coated. Cover with plastic wrap and refrigerate for 2 to 8 hours before serving."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Rotini Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"277\nCalories\n\n\n14g \nFat\n\n\n33g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699641390-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LnraVUeHSi6ygSVbMEoJ2sRlTTM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2269794-93496db373bb46a8ab484d1e27f00467.jpg"
@@ -2869,59 +3046,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236171/amazing-mexican-quinoa-salad/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Amazing Mexican Quinoa Salad</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 20 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups cooked quinoa\n\n\n1 (15 ounce) can pinto beans, rinsed and drained\n\n\n1 (15 ounce) can kidney beans, rinsed and drained\n\n\n1 (14 ounce) can corn\n\n\n1  red onion, chopped\n\n\n1 cup cooked brown rice\n\n\n1  red bell pepper, chopped\n\n\n¼ cup chopped fresh cilantro"},{"recipe_ingredients":"¾ cup olive oil\n\n\n⅓ cup red wine vinegar\n\n\n1 tablespoon chili powder, or to taste\n\n\n2 cloves garlic, mashed\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon cayenne pepper, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups cooked quinoa\n\n\n1 (15 ounce) can pinto beans, rinsed and drained\n\n\n1 (15 ounce) can kidney beans, rinsed and drained\n\n\n1 (14 ounce) can corn\n\n\n1  red onion, chopped\n\n\n1 cup cooked brown rice\n\n\n1  red bell pepper, chopped\n\n\n¼ cup chopped fresh cilantro'}, {'recipe_ingredients': '¾ cup olive oil\n\n\n⅓ cup red wine vinegar\n\n\n1 tablespoon chili powder, or to taste\n\n\n2 cloves garlic, mashed\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon cayenne pepper, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix quinoa, pinto beans, kidney beans, corn, red onion, brown rice, red bell pepper, and cilantro together in a glass or plastic container with a lid."},{"recipe_directions":"Whisk olive oil, vinegar, chili powder, garlic, salt, black pepper, and cayenne pepper together in a bowl; pour over quinoa mixture and toss to coat. Cover bowl with a lid and refrigerate until flavors blend, at least 2 hours."},{"recipe_directions":"Stir salad again before serving."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Grains"},{"recipe_tags":"Rice Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"397\nCalories\n\n\n23g \nFat\n\n\n42g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699641395-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GLYPeFMfASPO-StlopTTi-IL_Jc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4064627-de304f4ddb2a4413a8f4684142b3a1ca.jpg"
@@ -2934,59 +3107,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/255814/mexican-style-shrimp-cocktail/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Mexican-Style Shrimp Cocktail</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup clam juice\n\n\n¼ teaspoon dried oregano\n\n\n1 pound large shrimp, peeled and deveined\n\n\n1 ¼ cups peeled, seeded, diced ripe tomatoes\n\n\n1 cup diced English cucumber\n\n\n½ cup diced celery\n\n\n½ cup finely diced red onion\n\n\n2 tablespoons seeded and diced jalapeno peppers\n\n\n½ cup ketchup\n\n\n2 medium limes, juiced\n\n\n2 tablespoons freshly chopped cilantro, plus more for garnish\n\n\n1 dash Mexican-style hot sauce\n\n\n1 large Hass avocado, cubed"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup clam juice\n\n\n¼ teaspoon dried oregano\n\n\n1 pound large shrimp, peeled and deveined\n\n\n1 ¼ cups peeled, seeded, diced ripe tomatoes\n\n\n1 cup diced English cucumber\n\n\n½ cup diced celery\n\n\n½ cup finely diced red onion\n\n\n2 tablespoons seeded and diced jalapeno peppers\n\n\n½ cup ketchup\n\n\n2 medium limes, juiced\n\n\n2 tablespoons freshly chopped cilantro, plus more for garnish\n\n\n1 dash Mexican-style hot sauce\n\n\n1 large Hass avocado, cubed'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring clam juice and oregano to a boil in a saucepan over medium-high heat. Add shrimp; cook and stir just until shrimp turn pink, about 2 minutes. (They will not be cooked through.) Transfer shrimp to a bowl with a slotted spoon; let cool to room temperature. Reserve liquid."},{"recipe_directions":"While the shrimp are cooling, combine tomatoes, cucumbers, celery, onion, and jalapeños in a mixing bowl. Gently mix in reserved cooking liquid, ketchup, lime juice, 2 tablespoons cilantro, and hot sauce until well combined."},{"recipe_directions":"Place four whole shrimp in a small bowl; cover with plastic wrap. Chop remaining shrimp into bite-sized pieces; add to vegetable mixture and stir to combine. Cover with plastic wrap. Refrigerate both bowls until thoroughly chilled, 2 to 3 hours."},{"recipe_directions":"When ready to serve, stir avocado into the shrimp cocktail. Divide into four glass bowls; top each with a chilled whole shrimp and garnish with cilantro."},{"recipe_directions":"You can substitute 1 1/4 cups of quartered cherry tomatoes for the diced tomatoes."},{"recipe_directions":"If the chilled mixture seems a bit thick in Step 4, stir in a little tomato juice or pickle juice."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Seafood"},{"recipe_tags":"Shrimp"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"268\nCalories\n\n\n12g \nFat\n\n\n23g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699641399-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/iEEVdmN_pwR_ssPDgNUgKmV0Uho=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2362282-easy-black-bean-taco-salad-Sherri-4x3-1-81c7d743da014fe0aaaa0ca61d7ad835.jpg"
@@ -3000,59 +3169,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/221919/easy-black-bean-taco-salad/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Easy Black Bean Taco Salad</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound ground beef\n\n\n1 envelope taco seasoning mix\n\n\n¾ cup water\n\n\n1 (15 ounce) can black beans, drained\n\n\n1 head romaine lettuce, shredded\n\n\n1 (8 ounce) jar salsa\n\n\n2  tomatoes, diced\n\n\n2 cups shredded Mexican cheese blend\n\n\n8 ounces sour cream\n\n\n1 (10 ounce) bag tortilla chips"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound ground beef\n\n\n1 envelope taco seasoning mix\n\n\n¾ cup water\n\n\n1 (15 ounce) can black beans, drained\n\n\n1 head romaine lettuce, shredded\n\n\n1 (8 ounce) jar salsa\n\n\n2  tomatoes, diced\n\n\n2 cups shredded Mexican cheese blend\n\n\n8 ounces sour cream\n\n\n1 (10 ounce) bag tortilla chips'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Brown ground beef in a skillet over medium heat until crumbly and no longer pink, about 8 minutes; stir in taco mix and water. Cook beef mixture until thickened, about 10 more minutes."},{"recipe_directions":"Place black beans into a saucepan and bring to a simmer over medium heat."},{"recipe_directions":"Spread 1/4 of the beef mixture on a serving plate and top with 1/4 of the black beans; repeat with remaining beef mixture and beans to make 4 salads. Spread separate layers of romaine lettuce, salsa, tomatoes, and cheese over salads. Generously garnish with sour cream and tortilla chips."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Taco Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"1039\nCalories\n\n\n59g \nFat\n\n\n84g \nCarbs\n\n\n47g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699641402-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KfSlqQWb_VM5CZmpIP2GaKPXJvk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/212037-e5239507634c49cd9157aca334abb28b.jpg"
@@ -3065,59 +3230,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/56136/mexican-cucumber-salad/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Mexican Cucumber Salad</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) can stewed tomatoes, drained and sliced\n\n\n1 (8.75 ounce) can whole kernel corn, drained\n\n\n1 medium cucumber, chopped\n\n\n1  green bell pepper, chopped\n\n\n1  red bell pepper, chopped\n\n\n2 tablespoons red wine vinegar\n\n\n1 tablespoon crushed red pepper flakes or to taste\n\n\n½ teaspoon garlic, minced\n\n\n½ teaspoon cumin\n\n\n¼ teaspoon dried cilantro\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) can stewed tomatoes, drained and sliced\n\n\n1 (8.75 ounce) can whole kernel corn, drained\n\n\n1 medium cucumber, chopped\n\n\n1  green bell pepper, chopped\n\n\n1  red bell pepper, chopped\n\n\n2 tablespoons red wine vinegar\n\n\n1 tablespoon crushed red pepper flakes or to taste\n\n\n½ teaspoon garlic, minced\n\n\n½ teaspoon cumin\n\n\n¼ teaspoon dried cilantro\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place tomatoes, corn, cucumber, green bell pepper, red bell pepper, and red wine vinegar in a large bowl. Stir in crushed red pepper flakes, garlic, cumin, cilantro, salt, and black pepper. Cover and chill for at least 30 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Cucumber Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"75\nCalories\n\n\n1g \nFat\n\n\n17g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699641408-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FKBK8GZK35gxEFNv-2Nx-GTxvxI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1079x0:1081x2):format(webp)/8742637-46300416da3a40899317afac1fd436f3.jpg"
@@ -3130,59 +3291,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282275/mexican-street-corn-salad/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Mexican Street Corn Salad</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons Country Crock Spread\n\n\n6 cups fresh corn kernels\n\n\n½ teaspoon salt\n\n\n2 medium fresh jalapeno peppers, seeded and chopped\n\n\n2 cloves garlic, chopped\n\n\n1 teaspoon ground cumin\n\n\n¼ cup mayonnaise\n\n\n¼ cup chopped cilantro\n\n\n2 tablespoons grated cotija cheese\n\n\n2 tablespoons lime juice"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons Country Crock Spread\n\n\n6 cups fresh corn kernels\n\n\n½ teaspoon salt\n\n\n2 medium fresh jalapeno peppers, seeded and chopped\n\n\n2 cloves garlic, chopped\n\n\n1 teaspoon ground cumin\n\n\n¼ cup mayonnaise\n\n\n¼ cup chopped cilantro\n\n\n2 tablespoons grated cotija cheese\n\n\n2 tablespoons lime juice'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt Country Crock in a large nonstick skillet over high heat. Working in batches if necessary to avoid overcrowding the skillet, add corn and salt. Cook and stir until slightly charred, about 5 minutes. Add jalapeños, garlic, and cumin; cook until fragrant, about 1 minute."},{"recipe_directions":"Stir in mayonnaise, cilantro, cotija cheese, and lime juice. Serve warm or at room temperature."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Corn Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"167\nCalories\n\n\n10g \nFat\n\n\n19g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699641415-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6YOpQ51IRdrmfauz92ZJT74U2_Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/383252-texas-coleslaw-Alberta-Rose-4x3-1-9756f3ea72514446a660a62b2f517668.jpg"
@@ -3196,59 +3353,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20666/texas-coleslaw/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Texas Coleslaw</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup mayonnaise\n\n\n1 tablespoon lime juice\n\n\n1 tablespoon ground cumin\n\n\n1 teaspoon cayenne pepper\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n1 medium head green cabbage, rinsed and very thinly sliced\n\n\n1 large carrot, shredded\n\n\n2  green onions, sliced\n\n\n2  radishes, sliced"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup mayonnaise\n\n\n1 tablespoon lime juice\n\n\n1 tablespoon ground cumin\n\n\n1 teaspoon cayenne pepper\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n1 medium head green cabbage, rinsed and very thinly sliced\n\n\n1 large carrot, shredded\n\n\n2  green onions, sliced\n\n\n2  radishes, sliced'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together mayonnaise, lime juice, cumin, cayenne, salt, and pepper in a large bowl. Add cabbage, carrot, green onions, and radishes and stir until well-combined. Chill at least 1 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Coleslaw Recipes"},{"recipe_tags":"With Mayo"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"236\nCalories\n\n\n22g \nFat\n\n\n9g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699641422-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QkQf4UdztsuKZ6pi--s3vVEQVXo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/213251-faac1a57cce84748bc2be83f76e7e65a.jpg"
@@ -3261,59 +3414,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/70285/cilantro-tomato-corn-salad/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Cilantro Tomato Corn Salad</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 ears fresh corn in husks\n\n\n¼ cup butter, melted\n\n\n2  roma (plum) tomatoes, chopped\n\n\n1  jalapeno pepper, seeded and finely chopped\n\n\n½ small red onion, finely chopped\n\n\n2 cloves garlic, minced\n\n\n½ bunch fresh cilantro, chopped\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 pinch salt-free lemon-herb seasoning (such as Mrs. Dash)"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 ears fresh corn in husks\n\n\n¼ cup butter, melted\n\n\n2  roma (plum) tomatoes, chopped\n\n\n1  jalapeno pepper, seeded and finely chopped\n\n\n½ small red onion, finely chopped\n\n\n2 cloves garlic, minced\n\n\n½ bunch fresh cilantro, chopped\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 pinch salt-free lemon-herb seasoning (such as Mrs. Dash)'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Peel back corn husks, but leave them attached at the bottom. Remove the silks, and fold husks back up over the corn. Place on a dinner plate, and cook in the microwave for 5 minutes on High power, turning corn once half way through. Cool until cool enough to touch, then slice corn kernels from the cob and place them in a serving bowl."},{"recipe_directions":"Stir butter into the corn along with the tomatoes, jalapeno, red onion, garlic and cilantro. Season with salt, pepper, and seasoning blend. Mix well, taste, and adjust seasoning if necessary. Some people like the salad warm, but I prefer to chill it a little before serving."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Corn Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"174\nCalories\n\n\n12g \nFat\n\n\n16g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699641428-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cIwgqzuVqpWO4we5l0jdpcdsEns=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3884031-6bbabeeff5834d69ada6c2a90056b718.jpg"
@@ -3326,59 +3475,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/239831/low-carb-tacos/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Low-Carb "Tacos"</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds ground beef\n\n\n1  onion, diced\n\n\n½ (4 ounce) can diced jalapeno peppers\n\n\n1 (1 ounce) package taco seasoning mix\n\n\n2 cups shredded lettuce\n\n\n1  tomato, chopped\n\n\n½ cup shredded reduced-fat Cheddar cheese\n\n\n¼ cup salsa\n\n\n¼ cup low-fat sour cream\n\n\n1  avocado - peeled, pitted, and sliced"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds ground beef\n\n\n1  onion, diced\n\n\n½ (4 ounce) can diced jalapeno peppers\n\n\n1 (1 ounce) package taco seasoning mix\n\n\n2 cups shredded lettuce\n\n\n1  tomato, chopped\n\n\n½ cup shredded reduced-fat Cheddar cheese\n\n\n¼ cup salsa\n\n\n¼ cup low-fat sour cream\n\n\n1  avocado - peeled, pitted, and sliced'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook and stir ground beef, onion, and jalapeno peppers together in a skillet over medium-high heat until meat is browned and crumbly, 7 to 10 minutes. Stir taco seasoning into meat mixture; bring to a simmer and cook until flavors combine, about 5 minutes."},{"recipe_directions":"Stir meat mixture, shredded lettuce, tomato, Cheddar cheese, salsa, and sour cream together in a large bowl. Divide taco mixture among 4 bowls and top each with avocado slices."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Taco Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"521\nCalories\n\n\n35g \nFat\n\n\n16g \nCarbs\n\n\n35g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699641433-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/f0NV4pFEzNxSk6ikM6fEt3VbSUw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/522337-a74a283a96f04a058164e2ce843c1993.jpg"
@@ -3391,59 +3536,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20390/spicy-southwestern-slaw/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Spicy Southwestern Slaw</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 1 hr 15 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups shredded cabbage\n\n\n1  carrot, shredded\n\n\n1  onion, diced\n\n\n1  red bell pepper, diced\n\n\n1  jalapeno pepper, seeded and diced\n\n\n1 tablespoon chopped fresh cilantro\n\n\n½ cup canola oil\n\n\n2 tablespoons apple cider vinegar\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon cayenne pepper\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups shredded cabbage\n\n\n1  carrot, shredded\n\n\n1  onion, diced\n\n\n1  red bell pepper, diced\n\n\n1  jalapeno pepper, seeded and diced\n\n\n1 tablespoon chopped fresh cilantro\n\n\n½ cup canola oil\n\n\n2 tablespoons apple cider vinegar\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon cayenne pepper\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, toss together the cabbage, carrot, onion, red pepper, jalapeno and cilantro. Set aside."},{"recipe_directions":"In a small bowl, whisk together the oil, vinegar, sugar, cayenne pepper, salt and pepper. Pour over vegetable mixture and toss to combine. Cover and refrigerate for at least one hour."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Coleslaw Recipes"},{"recipe_tags":"No Mayo"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"202\nCalories\n\n\n19g \nFat\n\n\n8g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699641438-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Sh3I9VcN7nxV5k6Rejr6XzqEp-A=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1077x0:1079x2):format(webp)/4566140-59ecd46654e14cc3abf74a2d8815f4d1.jpg"
@@ -3456,59 +3597,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14304/black-bean-salad/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Black Bean Salad</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can black beans, rinsed and drained\n\n\n2 (15 ounce) cans whole kernel corn, drained\n\n\n8  green onions, chopped\n\n\n2  jalapeno peppers, seeded and minced\n\n\n1  green bell pepper, chopped\n\n\n1  avocado - peeled, pitted, and diced\n\n\n1 (4 ounce) jar pimentos\n\n\n3  tomatoes, seeded and chopped\n\n\n1 cup chopped fresh cilantro\n\n\n1  lime, juiced\n\n\n½ cup Italian salad dressing\n\n\n½ teaspoon garlic salt"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can black beans, rinsed and drained\n\n\n2 (15 ounce) cans whole kernel corn, drained\n\n\n8  green onions, chopped\n\n\n2  jalapeno peppers, seeded and minced\n\n\n1  green bell pepper, chopped\n\n\n1  avocado - peeled, pitted, and diced\n\n\n1 (4 ounce) jar pimentos\n\n\n3  tomatoes, seeded and chopped\n\n\n1 cup chopped fresh cilantro\n\n\n1  lime, juiced\n\n\n½ cup Italian salad dressing\n\n\n½ teaspoon garlic salt'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, combine the black beans, corn, green onions, jalapeno peppers, bell pepper, avocado, pimentos, tomatoes, cilantro, lime juice, and Italian dressing. Season with garlic salt. Toss, and chill until serving."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"159\nCalories\n\n\n6g \nFat\n\n\n24g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699641443-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/phaW7kzVkcrEMByasA0Ra4bz1Sg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/601800-ac90f79b10ef41a498351ee0651c1ee9.jpg"
@@ -3521,59 +3658,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14316/chicken-fiesta-salad/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Chicken Fiesta Salad</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  skinless, boneless chicken breast halves\n\n\n1 (1.27 ounce) packet dry fajita seasoning, divided\n\n\n1 tablespoon vegetable oil\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n1 (11 ounce) can Mexican-style corn\n\n\n½ cup salsa\n\n\n1 (10 ounce) package mixed salad greens\n\n\n1  onion, chopped\n\n\n1  tomato, cut into wedges"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  skinless, boneless chicken breast halves\n\n\n1 (1.27 ounce) packet dry fajita seasoning, divided\n\n\n1 tablespoon vegetable oil\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n1 (11 ounce) can Mexican-style corn\n\n\n½ cup salsa\n\n\n1 (10 ounce) package mixed salad greens\n\n\n1  onion, chopped\n\n\n1  tomato, cut into wedges'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rub chicken evenly with 1/2 the fajita seasoning. Heat the oil in a skillet over medium heat, and cook the chicken 8 minutes on each side, or until juices run clear; set aside."},{"recipe_directions":"In a large saucepan, mix beans, corn, salsa and other 1/2 of fajita seasoning. Heat over medium heat until warm."},{"recipe_directions":"Prepare the salad by tossing the greens, onion and tomato. Top salad with chicken and dress with the bean and corn mixture."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Taco Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"311\nCalories\n\n\n6g \nFat\n\n\n42g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699641449-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nH3yD9WFZoYRpCyC74IIjZ-XlB4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4048362-9632b714f93342f0afd34fad64632c3f.jpg"
@@ -3586,59 +3719,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/218645/salsa-salad/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Salsa Salad</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 large ripe tomatoes, cut into bite-size pieces\n\n\n1 bunch cilantro, stems cut off and leaves coarsely chopped\n\n\n1 large green bell pepper, cut into bite-size pieces\n\n\n1 large red bell pepper, cut into bite-size pieces \n\n\n2  jalapeno peppers, finely chopped\n\n\n3  green onions, chopped\n\n\n½  sweet red onion, chopped\n\n\n2 large avocados, pitted and cut into bite-sized pieces\n\n\n1  lime, juiced\n\n\n½ teaspoon salt, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 large ripe tomatoes, cut into bite-size pieces\n\n\n1 bunch cilantro, stems cut off and leaves coarsely chopped\n\n\n1 large green bell pepper, cut into bite-size pieces\n\n\n1 large red bell pepper, cut into bite-size pieces \n\n\n2  jalapeno peppers, finely chopped\n\n\n3  green onions, chopped\n\n\n½  sweet red onion, chopped\n\n\n2 large avocados, pitted and cut into bite-sized pieces\n\n\n1  lime, juiced\n\n\n½ teaspoon salt, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large salad bowl, lightly mix the tomatoes, cilantro, green and red bell peppers, jalapeno peppers, green onions, and sweet red onion until thoroughly combined. Gently toss with avocado pieces, and squeeze lime juice over the salad. Sprinkle with salt to serve."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"198\nCalories\n\n\n14g \nFat\n\n\n18g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699641453-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Vw8I2k_bSHw8wufh2ZOFpyAIeQg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1823582-f9b74f9c08f144fdb399eb08e8046cdc.jpg"
@@ -3651,59 +3780,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240458/pico-de-gallo-with-cabbage-mexican-coleslaw/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Pico de Gallo with Cabbage (Mexican Coleslaw)</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 head cabbage, shredded\n\n\n5  Roma (plum) tomatoes, diced\n\n\n¼  red onion, diced, or more to taste\n\n\n¼ cup pickled jalapeno slices, diced and juice reserved\n\n\n¼ cup chopped fresh cilantro, or to taste\n\n\n7 tablespoons lime juice\n\n\n3 tablespoons red wine vinegar\n\n\n¼ teaspoon chili powder\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon cayenne pepper, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 head cabbage, shredded\n\n\n5  Roma (plum) tomatoes, diced\n\n\n¼  red onion, diced, or more to taste\n\n\n¼ cup pickled jalapeno slices, diced and juice reserved\n\n\n¼ cup chopped fresh cilantro, or to taste\n\n\n7 tablespoons lime juice\n\n\n3 tablespoons red wine vinegar\n\n\n¼ teaspoon chili powder\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon cayenne pepper, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine cabbage, tomatoes, red onion, jalapeno slices, 2 tablespoons juice from jalapenos, cilantro, lime juice, vinegar, chili powder, black pepper, salt, and cayenne pepper in a bowl; refrigerate for flavors to blend, 1 to 2 hours."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Coleslaw Recipes"},{"recipe_tags":"No Mayo"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"42\nCalories\n\n\n0g \nFat\n\n\n10g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699641457-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RL5F3G3iB5Gykmbm7fjifl4Ri8Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x0:601x2):format(webp)/4543475-taco-salad-with-lime-vinegar-dressing-Molly-4x3-1-a8023a38e8004e2cbd33eb5fe4037beb.jpg"
@@ -3717,59 +3842,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241982/taco-salad-with-lime-vinegar-dressing/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Taco Salad with Lime Vinegar Dressing</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound lean ground beef\n\n\n¾ cup water\n\n\n1 (1 ounce) packet taco seasoning mix\n\n\n1 head romaine lettuce, chopped\n\n\n1 (15 ounce) can kidney beans, rinsed and drained\n\n\n1 (10 ounce) basket grape tomatoes, chopped\n\n\n1  avocado, pitted and sliced\n\n\n½ cup chopped carrots, or to taste\n\n\n½ cup chopped green bell pepper, or to taste\n\n\n½ cup chopped celery, or to taste\n\n\n¼ cup shredded Cheddar cheese, or to taste (Optional)\n\n\n¼ cup lime juice\n\n\n3 tablespoons honey\n\n\n2 tablespoons champagne vinegar\n\n\n2 tablespoons chopped fresh cilantro, or to taste (Optional)\n\n\n2 tablespoons Dijon mustard\n\n\n3 cloves garlic, minced\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound lean ground beef\n\n\n¾ cup water\n\n\n1 (1 ounce) packet taco seasoning mix\n\n\n1 head romaine lettuce, chopped\n\n\n1 (15 ounce) can kidney beans, rinsed and drained\n\n\n1 (10 ounce) basket grape tomatoes, chopped\n\n\n1  avocado, pitted and sliced\n\n\n½ cup chopped carrots, or to taste\n\n\n½ cup chopped green bell pepper, or to taste\n\n\n½ cup chopped celery, or to taste\n\n\n¼ cup shredded Cheddar cheese, or to taste (Optional)\n\n\n¼ cup lime juice\n\n\n3 tablespoons honey\n\n\n2 tablespoons champagne vinegar\n\n\n2 tablespoons chopped fresh cilantro, or to taste (Optional)\n\n\n2 tablespoons Dijon mustard\n\n\n3 cloves garlic, minced\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a large skillet over medium-high heat. Cook and stir beef in the hot skillet until browned and crumbly, 5 to 7 minutes; drain and discard grease. Add water and taco seasoning mix; cook and stir until water is evaporated and beef is evenly coated in seasoning mix, about 5 minutes."},{"recipe_directions":"Mix romaine lettuce, kidney beans, tomatoes, avocado, carrots, green bell pepper, celery, and Cheddar cheese in a large bowl; top with ground beef."},{"recipe_directions":"Whisk lime juice, honey, vinegar, cilantro, mustard, garlic, salt, and pepper together in a bowl until dressing is well mixed; served alongside salad."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Taco Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"554\nCalories\n\n\n26g \nFat\n\n\n52g \nCarbs\n\n\n31g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699641462-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gIEi9MOsl4bU0g2LXzdyWf7SuzM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/709466-9c9278bc54ef44faa387bb8821ff9b22.jpg"
@@ -3782,59 +3903,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16848/taco-salad-iii/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Taco Salad III</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"16 ounces lean ground beef\n\n\n1 (1.25 ounce) package taco seasoning mix\n\n\n1 head iceberg lettuce, shredded\n\n\n1  red onion, sliced\n\n\n1 bunch green onions, chopped\n\n\n1 (15 ounce) can pinto beans, drained\n\n\n1 (15 ounce) can kidney beans, drained\n\n\n2 large tomatoes, chopped\n\n\n1  avocados - peeled, pitted, and cubed\n\n\n8 ounces shredded Cheddar cheese\n\n\n1 (16 ounce) package corn chips\n\n\n1 (16 ounce) bottle Catalina salad dressing"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '16 ounces lean ground beef\n\n\n1 (1.25 ounce) package taco seasoning mix\n\n\n1 head iceberg lettuce, shredded\n\n\n1  red onion, sliced\n\n\n1 bunch green onions, chopped\n\n\n1 (15 ounce) can pinto beans, drained\n\n\n1 (15 ounce) can kidney beans, drained\n\n\n2 large tomatoes, chopped\n\n\n1  avocados - peeled, pitted, and cubed\n\n\n8 ounces shredded Cheddar cheese\n\n\n1 (16 ounce) package corn chips\n\n\n1 (16 ounce) bottle Catalina salad dressing'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Prepare the ground beef as directed by taco seasoning package and set aside."},{"recipe_directions":"In a large bowl, combine the beef mixture, lettuce, red onion, green onion, pinto beans, kidney beans, tomatoes, avocado and cheese. Mix well."},{"recipe_directions":"Before serving, add the corn chips and enough dressing to coat. Mix well and serve immediately."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Taco Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"945\nCalories\n\n\n61g \nFat\n\n\n76g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699641467-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3BJyMa9i36l5G6HW6CSX4ndFFqw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Elote_Salad_005-2000-bfb72d417c3d4232809a8300d402d7df.jpg"
@@ -3848,59 +3965,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264525/elote-salad/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Elote Salad</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 ears corn in the husk"},{"recipe_ingredients":"½ cup mayonnaise\n\n\n1  lime, juiced\n\n\n1 teaspoon hot sauce\n\n\n½ teaspoon mild chile powder\n\n\n¼ teaspoon smoked paprika\n\n\n½ cup crumbled Cotija cheese\n\n\n½ cup coarsely chopped cilantro\n\n\n3  scallions, sliced"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 ears corn in the husk'}, {'recipe_ingredients': '½ cup mayonnaise\n\n\n1  lime, juiced\n\n\n1 teaspoon hot sauce\n\n\n½ teaspoon mild chile powder\n\n\n¼ teaspoon smoked paprika\n\n\n½ cup crumbled Cotija cheese\n\n\n½ cup coarsely chopped cilantro\n\n\n3  scallions, sliced'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Soak corn in cold water for at least 1 hour."},{"recipe_directions":"Mix mayonnaise, lime juice, hot sauce, chile powder, and paprika together in a bowl. Refrigerate chile-lime mayonnaise."},{"recipe_directions":"Preheat an outdoor grill for medium heat and lightly oil the grate. Drain corn and grill away from the heat source, 15 to 20 minutes. Let cool until easily handled. Shuck corn and return to the grill; cook over the heat source until lightly charred, 3 to 5 minutes. Remove and let cool."},{"recipe_directions":"Cut kernels off the cob. Combine corn kernels, Cotija cheese, cilantro, and scallions in a large bowl. Fold in chile-lime mayonnaise."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Corn Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"257\nCalories\n\n\n19g \nFat\n\n\n20g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699641472-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bT4qN0O0csQirOORrKEEyTzlTRU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1038x0:1040x2):format(webp)/8206885-ebb8e9ecb4be4bce85653b2428d56782.jpg"
@@ -3913,59 +4026,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/188444/mexican-bean-and-rice-salad/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Mexican Bean and Rice Salad</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups cooked brown rice\n\n\n1 (15 ounce) can kidney beans, rinsed and drained\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n1 (15.25 ounce) can whole kernel corn, drained\n\n\n1 small onion, diced\n\n\n1  green bell pepper, diced\n\n\n2  jalapeno peppers, seeded and diced\n\n\n1  lime, zested and juiced\n\n\n¼ cup chopped cilantro leaves\n\n\n1 teaspoon minced garlic\n\n\n1 ½ teaspoons ground cumin\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups cooked brown rice\n\n\n1 (15 ounce) can kidney beans, rinsed and drained\n\n\n1 (15 ounce) can black beans, rinsed and drained\n\n\n1 (15.25 ounce) can whole kernel corn, drained\n\n\n1 small onion, diced\n\n\n1  green bell pepper, diced\n\n\n2  jalapeno peppers, seeded and diced\n\n\n1  lime, zested and juiced\n\n\n¼ cup chopped cilantro leaves\n\n\n1 teaspoon minced garlic\n\n\n1 ½ teaspoons ground cumin\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large salad bowl, combine the brown rice, kidney beans, black beans, corn, onion, green pepper, jalapeno peppers, lime zest and juice, cilantro, garlic, and cumin. Lightly toss all ingredients to mix well, and sprinkle with salt to taste."},{"recipe_directions":"Refrigerate salad for 1 hour, toss again, and serve."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Grains"},{"recipe_tags":"Rice Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"162\nCalories\n\n\n1g \nFat\n\n\n33g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699641475-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/j5GYBbszMhj9xY8hk96vbYXK5Vw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/215030-TacoSlaw-DDMFS-120-4x3-51194aa1604c40929deb64d455b9ea92.jpg"
@@ -3979,59 +4088,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/215030/taco-slaw/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Taco Slaw</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ small head cabbage, finely chopped\n\n\n1 carrot, finely chopped\n\n\n½ red onion, minced\n\n\n1 jalapeño pepper, seeded and minced\n\n\n1 tablespoon chopped fresh cilantro\n\n\n1 lime, juiced"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ small head cabbage, finely chopped\n\n\n1 carrot, finely chopped\n\n\n½ red onion, minced\n\n\n1 jalapeño pepper, seeded and minced\n\n\n1 tablespoon chopped fresh cilantro\n\n\n1 lime, juiced'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Chop the cabbage, carrot, and cilantro. Mince the red onion. Seed and mince the jalapeño."},{"recipe_directions":"Combine chopped vegetables and lime juice in a bowl; toss to coat."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Coleslaw Recipes"},{"recipe_tags":"No Mayo"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"27\nCalories\n\n\n0g \nFat\n\n\n7g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699641480-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17513/world-cuisine/latin-american/mexican/salads/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7femVbEhW6uioQRLf20bqhZLqoA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(799x0:801x2):format(webp)/5548704-bionicos-mexican-fruit-bowls-Yoly-4x3-1-4cbeb8c7d83543d7852d954f0ffa1615.jpg"
@@ -4045,42 +4150,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/266532/bionicos-mexican-fruit-bowls/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Bionicos (Mexican Fruit Bowls)</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅓ cup plain yogurt\n\n\n⅓ cup sweetened condensed milk\n\n\n⅓ cup Mexican crema\n\n\n1 teaspoon vanilla extract"},{"recipe_ingredients":"1 cup diced cantaloupe\n\n\n1 cup diced papaya\n\n\n1 cup diced red apple\n\n\n1 cup sliced banana\n\n\n1 cup sliced strawberries\n\n\n½ cup granola\n\n\n½ cup raisins\n\n\n½ cup shredded coconut"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup plain yogurt\n\n\n⅓ cup sweetened condensed milk\n\n\n⅓ cup Mexican crema\n\n\n1 teaspoon vanilla extract'}, {'recipe_ingredients': '1 cup diced cantaloupe\n\n\n1 cup diced papaya\n\n\n1 cup diced red apple\n\n\n1 cup sliced banana\n\n\n1 cup sliced strawberries\n\n\n½ cup granola\n\n\n½ cup raisins\n\n\n½ cup shredded coconut'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make the topping: Mix yogurt, condensed milk, Mexican crema, and vanilla together in a bowl until well combined."},{"recipe_directions":"Make the fruit salads: Divide cantaloupe, papaya, apple, and banana among 4 individual bowls, arranging each fruit in its own section. Place strawberries in the center of each bowl. Sprinkle granola, raisins, and coconut over the bowls, then drizzle with the topping."},{"recipe_directions":"You can substitute crème fraîche for the Mexican crema, and feel free to use any seasonal fresh fruit."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Fruit Salad Recipes"},{"recipe_tags":"Apple Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"426\nCalories\n\n\n17g \nFat\n\n\n66g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>